--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979468644800152</v>
+        <v>0.9979468644800139</v>
       </c>
       <c r="D2">
-        <v>1.017072258030473</v>
+        <v>1.017072258030472</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.005658334997207</v>
+        <v>1.005658334997206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044498698751667</v>
+        <v>1.044498698751666</v>
       </c>
       <c r="J2">
-        <v>1.020189158374873</v>
+        <v>1.020189158374871</v>
       </c>
       <c r="K2">
-        <v>1.028298764519026</v>
+        <v>1.028298764519025</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.017039399092446</v>
+        <v>1.017039399092445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,7 +462,7 @@
         <v>1.005400282241375</v>
       </c>
       <c r="D3">
-        <v>1.02287931133976</v>
+        <v>1.022879311339761</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
@@ -477,7 +477,7 @@
         <v>1.047387421168627</v>
       </c>
       <c r="J3">
-        <v>1.025744804932598</v>
+        <v>1.025744804932597</v>
       </c>
       <c r="K3">
         <v>1.033227582899456</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.02399599566935</v>
+        <v>1.023995995669349</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010065634090163</v>
+        <v>1.010065634090162</v>
       </c>
       <c r="D4">
-        <v>1.02651583386737</v>
+        <v>1.026515833867369</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049180428955387</v>
+        <v>1.049180428955386</v>
       </c>
       <c r="J4">
         <v>1.029215318099066</v>
       </c>
       <c r="K4">
-        <v>1.036304431886474</v>
+        <v>1.036304431886473</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011991442960766</v>
+        <v>1.011991442960765</v>
       </c>
       <c r="D5">
-        <v>1.028017253452056</v>
+        <v>1.028017253452055</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.020507269661595</v>
+        <v>1.020507269661594</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049916872085987</v>
+        <v>1.049916872085986</v>
       </c>
       <c r="J5">
-        <v>1.03064618968232</v>
+        <v>1.030646189682319</v>
       </c>
       <c r="K5">
-        <v>1.037572470020077</v>
+        <v>1.037572470020076</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.030145775702161</v>
+        <v>1.03014577570216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0123127730616</v>
+        <v>1.012312773061599</v>
       </c>
       <c r="D6">
-        <v>1.028267787040977</v>
+        <v>1.028267787040976</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.020847510150538</v>
+        <v>1.020847510150537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050039532191081</v>
+        <v>1.05003953219108</v>
       </c>
       <c r="J6">
-        <v>1.030884834594382</v>
+        <v>1.030884834594381</v>
       </c>
       <c r="K6">
-        <v>1.037783925313094</v>
+        <v>1.037783925313092</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.030445532342498</v>
+        <v>1.030445532342497</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010091503588801</v>
+        <v>1.0100915035888</v>
       </c>
       <c r="D7">
-        <v>1.02653600146198</v>
+        <v>1.026536001461979</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.018496008879065</v>
+        <v>1.018496008879064</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.036321473734756</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.028373284825342</v>
+        <v>1.028373284825341</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,13 +652,13 @@
         <v>1.000499786631121</v>
       </c>
       <c r="D8">
-        <v>1.019060849005119</v>
+        <v>1.019060849005118</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.008354416385254</v>
+        <v>1.008354416385253</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.045491301399227</v>
       </c>
       <c r="J8">
-        <v>1.022093501068246</v>
+        <v>1.022093501068245</v>
       </c>
       <c r="K8">
-        <v>1.029988673457593</v>
+        <v>1.029988673457592</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822806873555064</v>
+        <v>0.9822806873555067</v>
       </c>
       <c r="D9">
-        <v>1.004881306085001</v>
+        <v>1.004881306085002</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9891396719208922</v>
+        <v>0.9891396719208925</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>1.008475059853773</v>
       </c>
       <c r="K9">
-        <v>1.017895680848998</v>
+        <v>1.017895680848999</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.002411442687398</v>
+        <v>1.002411442687399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9690715458312128</v>
+        <v>0.9690715458312126</v>
       </c>
       <c r="D10">
-        <v>0.9946226992149036</v>
+        <v>0.994622699214904</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
         <v>0.9752422495067719</v>
@@ -749,7 +749,7 @@
         <v>1.009089726001318</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
         <v>0.9900733786178988</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9630520892255731</v>
+        <v>0.963052089225572</v>
       </c>
       <c r="D11">
-        <v>0.9899552407417007</v>
+        <v>0.9899552407416996</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9689171628605097</v>
+        <v>0.9689171628605084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030669516492829</v>
+        <v>1.030669516492828</v>
       </c>
       <c r="J11">
-        <v>0.994047030046825</v>
+        <v>0.9940470300468239</v>
       </c>
       <c r="K11">
-        <v>1.005069105611151</v>
+        <v>1.00506910561115</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.984450066687424</v>
+        <v>0.9844500666874227</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607663525446619</v>
+        <v>0.960766352544663</v>
       </c>
       <c r="D12">
-        <v>0.9881842260088399</v>
+        <v>0.9881842260088407</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9665165783116886</v>
+        <v>0.9665165783116895</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029750107317216</v>
       </c>
       <c r="J12">
-        <v>0.9923292385665293</v>
+        <v>0.99232923856653</v>
       </c>
       <c r="K12">
-        <v>1.003541353519435</v>
+        <v>1.003541353519436</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9823146669924215</v>
+        <v>0.9823146669924223</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9612589913690148</v>
+        <v>0.9612589913690162</v>
       </c>
       <c r="D13">
-        <v>0.988565864160917</v>
+        <v>0.9885658641609183</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.967033915510864</v>
+        <v>0.9670339155108654</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029948377546376</v>
       </c>
       <c r="J13">
-        <v>0.9926995096257785</v>
+        <v>0.9926995096257795</v>
       </c>
       <c r="K13">
-        <v>1.003870669711109</v>
+        <v>1.00387066971111</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9827749075373935</v>
+        <v>0.9827749075373948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9628641966496952</v>
+        <v>0.9628641966496949</v>
       </c>
       <c r="D14">
-        <v>0.9898096310528627</v>
+        <v>0.9898096310528621</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9687198050727934</v>
+        <v>0.9687198050727933</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.03059398967081</v>
       </c>
       <c r="J14">
-        <v>0.9939058419266801</v>
+        <v>0.9939058419266797</v>
       </c>
       <c r="K14">
         <v>1.004943540918007</v>
@@ -904,7 +904,7 @@
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842745337455606</v>
+        <v>0.9842745337455605</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9638464560476022</v>
+        <v>0.9638464560476017</v>
       </c>
       <c r="D15">
-        <v>0.9905709007316065</v>
+        <v>0.9905709007316056</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9697515954465451</v>
+        <v>0.9697515954465441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030988724534743</v>
+        <v>1.030988724534742</v>
       </c>
       <c r="J15">
-        <v>0.9946439042034412</v>
+        <v>0.9946439042034405</v>
       </c>
       <c r="K15">
-        <v>1.005599923732632</v>
+        <v>1.005599923732631</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9851921763956497</v>
+        <v>0.9851921763956489</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9694643271628057</v>
+        <v>0.9694643271628038</v>
       </c>
       <c r="D16">
-        <v>0.9949274310199564</v>
+        <v>0.9949274310199545</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.975655139537317</v>
+        <v>0.9756551395373151</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033241305538348</v>
+        <v>1.033241305538347</v>
       </c>
       <c r="J16">
-        <v>0.9988632683970625</v>
+        <v>0.9988632683970606</v>
       </c>
       <c r="K16">
-        <v>1.009351931216441</v>
+        <v>1.009351931216439</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9904402966997632</v>
+        <v>0.9904402966997612</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972904831369247</v>
+        <v>0.9729048313692469</v>
       </c>
       <c r="D17">
-        <v>0.9975975381669941</v>
+        <v>0.9975975381669937</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9792726848091597</v>
+        <v>0.9792726848091596</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.034616339661378</v>
       </c>
       <c r="J17">
-        <v>1.001445586121208</v>
+        <v>1.001445586121207</v>
       </c>
       <c r="K17">
         <v>1.011647822777794</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9936541686532574</v>
+        <v>0.9936541686532571</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748830513642849</v>
+        <v>0.9748830513642833</v>
       </c>
       <c r="D18">
-        <v>0.9991334751073594</v>
+        <v>0.9991334751073581</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9813534502555441</v>
+        <v>0.981353450255543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035405308311305</v>
+        <v>1.035405308311304</v>
       </c>
       <c r="J18">
-        <v>1.002929720262047</v>
+        <v>1.002929720262046</v>
       </c>
       <c r="K18">
-        <v>1.012967182681727</v>
+        <v>1.012967182681726</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9955020018051941</v>
+        <v>0.995502001805193</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755528619867002</v>
+        <v>0.975552861986701</v>
       </c>
       <c r="D19">
-        <v>0.99965364122713</v>
+        <v>0.9996536412271305</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9820581092214468</v>
+        <v>0.9820581092214473</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>1.013413780406917</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9961276502882322</v>
+        <v>0.9961276502882329</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9725386851472065</v>
+        <v>0.9725386851472078</v>
       </c>
       <c r="D20">
-        <v>0.9973133071988826</v>
+        <v>0.9973133071988836</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9788876194084024</v>
+        <v>0.9788876194084034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034470176135678</v>
+        <v>1.034470176135679</v>
       </c>
       <c r="J20">
-        <v>1.001170836563352</v>
+        <v>1.001170836563354</v>
       </c>
       <c r="K20">
-        <v>1.011403563947739</v>
+        <v>1.01140356394774</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9933121490304716</v>
+        <v>0.9933121490304725</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9623929218103934</v>
+        <v>0.9623929218103919</v>
       </c>
       <c r="D21">
-        <v>0.9894444329894259</v>
+        <v>0.9894444329894243</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.968224808857493</v>
+        <v>0.9682248088574912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030404511927179</v>
+        <v>1.030404511927178</v>
       </c>
       <c r="J21">
-        <v>0.9935516973733972</v>
+        <v>0.9935516973733959</v>
       </c>
       <c r="K21">
-        <v>1.004628581817895</v>
+        <v>1.004628581817894</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9838342582037473</v>
+        <v>0.9838342582037456</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557225617279403</v>
+        <v>0.9557225617279401</v>
       </c>
       <c r="D22">
-        <v>0.9842789729931535</v>
+        <v>0.984278972993153</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9612215918847329</v>
+        <v>0.9612215918847322</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027716754431338</v>
       </c>
       <c r="J22">
-        <v>0.9885371110798055</v>
+        <v>0.988537111079805</v>
       </c>
       <c r="K22">
-        <v>1.000168434832565</v>
+        <v>1.000168434832564</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9776024899830066</v>
+        <v>0.9776024899830061</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9592880616556714</v>
+        <v>0.9592880616556706</v>
       </c>
       <c r="D23">
-        <v>0.9870392355579635</v>
+        <v>0.9870392355579625</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9649643506207835</v>
+        <v>0.9649643506207829</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029154783535359</v>
       </c>
       <c r="J23">
-        <v>0.9912180168642011</v>
+        <v>0.9912180168642002</v>
       </c>
       <c r="K23">
-        <v>1.002553016068297</v>
+        <v>1.002553016068296</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9809335852126631</v>
+        <v>0.9809335852126625</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9727042187930782</v>
+        <v>0.9727042187930762</v>
       </c>
       <c r="D24">
-        <v>0.9974418050989324</v>
+        <v>0.9974418050989305</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.9790617040273087</v>
+        <v>0.9790617040273072</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034536261373231</v>
+        <v>1.03453626137323</v>
       </c>
       <c r="J24">
-        <v>1.001295052058151</v>
+        <v>1.001295052058149</v>
       </c>
       <c r="K24">
-        <v>1.011513994939699</v>
+        <v>1.011513994939697</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9934667753553434</v>
+        <v>0.9934667753553422</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9871637483352266</v>
+        <v>0.9871637483352264</v>
       </c>
       <c r="D25">
         <v>1.008678661739551</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9942839172292528</v>
+        <v>0.9942839172292529</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.012130962558775</v>
       </c>
       <c r="K25">
-        <v>1.02114373014885</v>
+        <v>1.021143730148849</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979468644800139</v>
+        <v>0.9979468644800152</v>
       </c>
       <c r="D2">
-        <v>1.017072258030472</v>
+        <v>1.017072258030473</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.005658334997206</v>
+        <v>1.005658334997207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044498698751666</v>
+        <v>1.044498698751667</v>
       </c>
       <c r="J2">
-        <v>1.020189158374871</v>
+        <v>1.020189158374873</v>
       </c>
       <c r="K2">
-        <v>1.028298764519025</v>
+        <v>1.028298764519026</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.017039399092445</v>
+        <v>1.017039399092446</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,7 +462,7 @@
         <v>1.005400282241375</v>
       </c>
       <c r="D3">
-        <v>1.022879311339761</v>
+        <v>1.02287931133976</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
@@ -477,7 +477,7 @@
         <v>1.047387421168627</v>
       </c>
       <c r="J3">
-        <v>1.025744804932597</v>
+        <v>1.025744804932598</v>
       </c>
       <c r="K3">
         <v>1.033227582899456</v>
@@ -486,7 +486,7 @@
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.023995995669349</v>
+        <v>1.02399599566935</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,10 +497,10 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010065634090162</v>
+        <v>1.010065634090163</v>
       </c>
       <c r="D4">
-        <v>1.026515833867369</v>
+        <v>1.02651583386737</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
@@ -512,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049180428955386</v>
+        <v>1.049180428955387</v>
       </c>
       <c r="J4">
         <v>1.029215318099066</v>
       </c>
       <c r="K4">
-        <v>1.036304431886473</v>
+        <v>1.036304431886474</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011991442960765</v>
+        <v>1.011991442960766</v>
       </c>
       <c r="D5">
-        <v>1.028017253452055</v>
+        <v>1.028017253452056</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.020507269661594</v>
+        <v>1.020507269661595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049916872085986</v>
+        <v>1.049916872085987</v>
       </c>
       <c r="J5">
-        <v>1.030646189682319</v>
+        <v>1.03064618968232</v>
       </c>
       <c r="K5">
-        <v>1.037572470020076</v>
+        <v>1.037572470020077</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.03014577570216</v>
+        <v>1.030145775702161</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012312773061599</v>
+        <v>1.0123127730616</v>
       </c>
       <c r="D6">
-        <v>1.028267787040976</v>
+        <v>1.028267787040977</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020847510150537</v>
+        <v>1.020847510150538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05003953219108</v>
+        <v>1.050039532191081</v>
       </c>
       <c r="J6">
-        <v>1.030884834594381</v>
+        <v>1.030884834594382</v>
       </c>
       <c r="K6">
-        <v>1.037783925313092</v>
+        <v>1.037783925313094</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.030445532342497</v>
+        <v>1.030445532342498</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0100915035888</v>
+        <v>1.010091503588801</v>
       </c>
       <c r="D7">
-        <v>1.026536001461979</v>
+        <v>1.02653600146198</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.018496008879064</v>
+        <v>1.018496008879065</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>1.036321473734756</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.028373284825341</v>
+        <v>1.028373284825342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -652,13 +652,13 @@
         <v>1.000499786631121</v>
       </c>
       <c r="D8">
-        <v>1.019060849005118</v>
+        <v>1.019060849005119</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.008354416385253</v>
+        <v>1.008354416385254</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>1.045491301399227</v>
       </c>
       <c r="J8">
-        <v>1.022093501068245</v>
+        <v>1.022093501068246</v>
       </c>
       <c r="K8">
-        <v>1.029988673457592</v>
+        <v>1.029988673457593</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9822806873555067</v>
+        <v>0.9822806873555064</v>
       </c>
       <c r="D9">
-        <v>1.004881306085002</v>
+        <v>1.004881306085001</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9891396719208925</v>
+        <v>0.9891396719208922</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>1.008475059853773</v>
       </c>
       <c r="K9">
-        <v>1.017895680848999</v>
+        <v>1.017895680848998</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.002411442687399</v>
+        <v>1.002411442687398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9690715458312126</v>
+        <v>0.9690715458312128</v>
       </c>
       <c r="D10">
-        <v>0.994622699214904</v>
+        <v>0.9946226992149036</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
         <v>0.9752422495067719</v>
@@ -749,7 +749,7 @@
         <v>1.009089726001318</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
         <v>0.9900733786178988</v>
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.963052089225572</v>
+        <v>0.9630520892255731</v>
       </c>
       <c r="D11">
-        <v>0.9899552407416996</v>
+        <v>0.9899552407417007</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9689171628605084</v>
+        <v>0.9689171628605097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030669516492828</v>
+        <v>1.030669516492829</v>
       </c>
       <c r="J11">
-        <v>0.9940470300468239</v>
+        <v>0.994047030046825</v>
       </c>
       <c r="K11">
-        <v>1.00506910561115</v>
+        <v>1.005069105611151</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9844500666874227</v>
+        <v>0.984450066687424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.960766352544663</v>
+        <v>0.9607663525446619</v>
       </c>
       <c r="D12">
-        <v>0.9881842260088407</v>
+        <v>0.9881842260088399</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9665165783116895</v>
+        <v>0.9665165783116886</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029750107317216</v>
       </c>
       <c r="J12">
-        <v>0.99232923856653</v>
+        <v>0.9923292385665293</v>
       </c>
       <c r="K12">
-        <v>1.003541353519436</v>
+        <v>1.003541353519435</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9823146669924223</v>
+        <v>0.9823146669924215</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9612589913690162</v>
+        <v>0.9612589913690148</v>
       </c>
       <c r="D13">
-        <v>0.9885658641609183</v>
+        <v>0.988565864160917</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9670339155108654</v>
+        <v>0.967033915510864</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.029948377546376</v>
       </c>
       <c r="J13">
-        <v>0.9926995096257795</v>
+        <v>0.9926995096257785</v>
       </c>
       <c r="K13">
-        <v>1.00387066971111</v>
+        <v>1.003870669711109</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9827749075373948</v>
+        <v>0.9827749075373935</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9628641966496949</v>
+        <v>0.9628641966496952</v>
       </c>
       <c r="D14">
-        <v>0.9898096310528621</v>
+        <v>0.9898096310528627</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9687198050727933</v>
+        <v>0.9687198050727934</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1.03059398967081</v>
       </c>
       <c r="J14">
-        <v>0.9939058419266797</v>
+        <v>0.9939058419266801</v>
       </c>
       <c r="K14">
         <v>1.004943540918007</v>
@@ -904,7 +904,7 @@
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842745337455605</v>
+        <v>0.9842745337455606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9638464560476017</v>
+        <v>0.9638464560476022</v>
       </c>
       <c r="D15">
-        <v>0.9905709007316056</v>
+        <v>0.9905709007316065</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9697515954465441</v>
+        <v>0.9697515954465451</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030988724534742</v>
+        <v>1.030988724534743</v>
       </c>
       <c r="J15">
-        <v>0.9946439042034405</v>
+        <v>0.9946439042034412</v>
       </c>
       <c r="K15">
-        <v>1.005599923732631</v>
+        <v>1.005599923732632</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9851921763956489</v>
+        <v>0.9851921763956497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9694643271628038</v>
+        <v>0.9694643271628057</v>
       </c>
       <c r="D16">
-        <v>0.9949274310199545</v>
+        <v>0.9949274310199564</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9756551395373151</v>
+        <v>0.975655139537317</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033241305538347</v>
+        <v>1.033241305538348</v>
       </c>
       <c r="J16">
-        <v>0.9988632683970606</v>
+        <v>0.9988632683970625</v>
       </c>
       <c r="K16">
-        <v>1.009351931216439</v>
+        <v>1.009351931216441</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9904402966997612</v>
+        <v>0.9904402966997632</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9729048313692469</v>
+        <v>0.972904831369247</v>
       </c>
       <c r="D17">
-        <v>0.9975975381669937</v>
+        <v>0.9975975381669941</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9792726848091596</v>
+        <v>0.9792726848091597</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.034616339661378</v>
       </c>
       <c r="J17">
-        <v>1.001445586121207</v>
+        <v>1.001445586121208</v>
       </c>
       <c r="K17">
         <v>1.011647822777794</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9936541686532571</v>
+        <v>0.9936541686532574</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748830513642833</v>
+        <v>0.9748830513642849</v>
       </c>
       <c r="D18">
-        <v>0.9991334751073581</v>
+        <v>0.9991334751073594</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.981353450255543</v>
+        <v>0.9813534502555441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035405308311304</v>
+        <v>1.035405308311305</v>
       </c>
       <c r="J18">
-        <v>1.002929720262046</v>
+        <v>1.002929720262047</v>
       </c>
       <c r="K18">
-        <v>1.012967182681726</v>
+        <v>1.012967182681727</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.995502001805193</v>
+        <v>0.9955020018051941</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.975552861986701</v>
+        <v>0.9755528619867002</v>
       </c>
       <c r="D19">
-        <v>0.9996536412271305</v>
+        <v>0.99965364122713</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9820581092214473</v>
+        <v>0.9820581092214468</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1091,10 +1091,10 @@
         <v>1.013413780406917</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9961276502882329</v>
+        <v>0.9961276502882322</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9725386851472078</v>
+        <v>0.9725386851472065</v>
       </c>
       <c r="D20">
-        <v>0.9973133071988836</v>
+        <v>0.9973133071988826</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9788876194084034</v>
+        <v>0.9788876194084024</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034470176135679</v>
+        <v>1.034470176135678</v>
       </c>
       <c r="J20">
-        <v>1.001170836563354</v>
+        <v>1.001170836563352</v>
       </c>
       <c r="K20">
-        <v>1.01140356394774</v>
+        <v>1.011403563947739</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9933121490304725</v>
+        <v>0.9933121490304716</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9623929218103919</v>
+        <v>0.9623929218103934</v>
       </c>
       <c r="D21">
-        <v>0.9894444329894243</v>
+        <v>0.9894444329894259</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9682248088574912</v>
+        <v>0.968224808857493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030404511927178</v>
+        <v>1.030404511927179</v>
       </c>
       <c r="J21">
-        <v>0.9935516973733959</v>
+        <v>0.9935516973733972</v>
       </c>
       <c r="K21">
-        <v>1.004628581817894</v>
+        <v>1.004628581817895</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9838342582037456</v>
+        <v>0.9838342582037473</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557225617279401</v>
+        <v>0.9557225617279403</v>
       </c>
       <c r="D22">
-        <v>0.984278972993153</v>
+        <v>0.9842789729931535</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9612215918847322</v>
+        <v>0.9612215918847329</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027716754431338</v>
       </c>
       <c r="J22">
-        <v>0.988537111079805</v>
+        <v>0.9885371110798055</v>
       </c>
       <c r="K22">
-        <v>1.000168434832564</v>
+        <v>1.000168434832565</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9776024899830061</v>
+        <v>0.9776024899830066</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9592880616556706</v>
+        <v>0.9592880616556714</v>
       </c>
       <c r="D23">
-        <v>0.9870392355579625</v>
+        <v>0.9870392355579635</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9649643506207829</v>
+        <v>0.9649643506207835</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029154783535359</v>
       </c>
       <c r="J23">
-        <v>0.9912180168642002</v>
+        <v>0.9912180168642011</v>
       </c>
       <c r="K23">
-        <v>1.002553016068296</v>
+        <v>1.002553016068297</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9809335852126625</v>
+        <v>0.9809335852126631</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9727042187930762</v>
+        <v>0.9727042187930782</v>
       </c>
       <c r="D24">
-        <v>0.9974418050989305</v>
+        <v>0.9974418050989324</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9790617040273072</v>
+        <v>0.9790617040273087</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03453626137323</v>
+        <v>1.034536261373231</v>
       </c>
       <c r="J24">
-        <v>1.001295052058149</v>
+        <v>1.001295052058151</v>
       </c>
       <c r="K24">
-        <v>1.011513994939697</v>
+        <v>1.011513994939699</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9934667753553422</v>
+        <v>0.9934667753553434</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9871637483352264</v>
+        <v>0.9871637483352266</v>
       </c>
       <c r="D25">
         <v>1.008678661739551</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9942839172292529</v>
+        <v>0.9942839172292528</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.012130962558775</v>
       </c>
       <c r="K25">
-        <v>1.021143730148849</v>
+        <v>1.02114373014885</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979468644800152</v>
+        <v>0.9979646818000246</v>
       </c>
       <c r="D2">
-        <v>1.017072258030473</v>
+        <v>1.017086904077713</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.005658334997207</v>
+        <v>1.005673632006533</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044498698751667</v>
+        <v>1.044507240780812</v>
       </c>
       <c r="J2">
-        <v>1.020189158374873</v>
+        <v>1.020206439772701</v>
       </c>
       <c r="K2">
-        <v>1.028298764519026</v>
+        <v>1.028313215040864</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.017039399092446</v>
+        <v>1.017054486005101</v>
+      </c>
+      <c r="N2">
+        <v>1.014123314838512</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005400282241375</v>
+        <v>1.005411508501473</v>
       </c>
       <c r="D3">
-        <v>1.02287931133976</v>
+        <v>1.022888553617535</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.013533397581919</v>
+        <v>1.013543016235288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047387421168627</v>
+        <v>1.047392816763997</v>
       </c>
       <c r="J3">
-        <v>1.025744804932598</v>
+        <v>1.025755729610756</v>
       </c>
       <c r="K3">
-        <v>1.033227582899456</v>
+        <v>1.033236713402639</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.02399599566935</v>
+        <v>1.024005495310579</v>
+      </c>
+      <c r="N3">
+        <v>1.018112918761463</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010065634090163</v>
+        <v>1.010072826348792</v>
       </c>
       <c r="D4">
-        <v>1.02651583386737</v>
+        <v>1.026521760551348</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.018468629362366</v>
+        <v>1.018474784043196</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049180428955387</v>
+        <v>1.04918389108734</v>
       </c>
       <c r="J4">
-        <v>1.029215318099066</v>
+        <v>1.029222331289919</v>
       </c>
       <c r="K4">
-        <v>1.036304431886474</v>
+        <v>1.036310291525486</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.028349149391288</v>
+        <v>1.0283552330826</v>
+      </c>
+      <c r="N4">
+        <v>1.020600648311623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011991442960766</v>
+        <v>1.011996989522373</v>
       </c>
       <c r="D5">
-        <v>1.028017253452056</v>
+        <v>1.02802182573789</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.020507269661595</v>
+        <v>1.020512013664999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049916872085987</v>
+        <v>1.049919543735031</v>
       </c>
       <c r="J5">
-        <v>1.03064618968232</v>
+        <v>1.030651602595542</v>
       </c>
       <c r="K5">
-        <v>1.037572470020077</v>
+        <v>1.037576992052397</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.030145775702161</v>
+        <v>1.030150466615932</v>
+      </c>
+      <c r="N5">
+        <v>1.021625227105531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0123127730616</v>
+        <v>1.012318046111259</v>
       </c>
       <c r="D6">
-        <v>1.028267787040977</v>
+        <v>1.028272134128899</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020847510150538</v>
+        <v>1.020852019840118</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050039532191081</v>
+        <v>1.050042072366083</v>
       </c>
       <c r="J6">
-        <v>1.030884834594382</v>
+        <v>1.030889981288294</v>
       </c>
       <c r="K6">
-        <v>1.037783925313094</v>
+        <v>1.037788224855556</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.030445532342498</v>
+        <v>1.030449991822236</v>
+      </c>
+      <c r="N6">
+        <v>1.021796044330861</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010091503588801</v>
+        <v>1.010098673666535</v>
       </c>
       <c r="D7">
-        <v>1.02653600146198</v>
+        <v>1.026541909898051</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.018496008879065</v>
+        <v>1.018502144537121</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049190336335128</v>
+        <v>1.049193787819507</v>
       </c>
       <c r="J7">
-        <v>1.029234545955744</v>
+        <v>1.029241537595436</v>
       </c>
       <c r="K7">
-        <v>1.036321473734756</v>
+        <v>1.03632731535783</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.028373284825342</v>
+        <v>1.028379349741661</v>
+      </c>
+      <c r="N7">
+        <v>1.020614420829296</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000499786631121</v>
+        <v>1.000515325409524</v>
       </c>
       <c r="D8">
-        <v>1.019060849005119</v>
+        <v>1.019073628868114</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.008354416385254</v>
+        <v>1.008367747749272</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045491301399227</v>
+        <v>1.045498757448031</v>
       </c>
       <c r="J8">
-        <v>1.022093501068246</v>
+        <v>1.022108589726379</v>
       </c>
       <c r="K8">
-        <v>1.029988673457593</v>
+        <v>1.030001288221523</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.019422398592488</v>
+        <v>1.019435553113659</v>
+      </c>
+      <c r="N8">
+        <v>1.015491799367706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9822806873555064</v>
+        <v>0.9823130088333115</v>
       </c>
       <c r="D9">
-        <v>1.004881306085001</v>
+        <v>1.004907783390583</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9891396719208922</v>
+        <v>0.9891675467236929</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038344202294708</v>
+        <v>1.038359615072398</v>
       </c>
       <c r="J9">
-        <v>1.008475059853773</v>
+        <v>1.008506181312447</v>
       </c>
       <c r="K9">
-        <v>1.017895680848998</v>
+        <v>1.017921733928419</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.002411442687398</v>
+        <v>1.002438852373281</v>
+      </c>
+      <c r="N9">
+        <v>1.00568648371513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9690715458312128</v>
+        <v>0.9691168791804156</v>
       </c>
       <c r="D10">
-        <v>0.9946226992149036</v>
+        <v>0.9946597187981839</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9752422495067719</v>
+        <v>0.9752815041355111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033084102518046</v>
+        <v>1.033105619387808</v>
       </c>
       <c r="J10">
-        <v>0.9985683745566455</v>
+        <v>0.9986117413083352</v>
       </c>
       <c r="K10">
-        <v>1.009089726001318</v>
+        <v>1.009126067773154</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9900733786178988</v>
+        <v>0.9901118766084719</v>
+      </c>
+      <c r="N10">
+        <v>0.9985301984166887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9630520892255731</v>
+        <v>0.9631036214501335</v>
       </c>
       <c r="D11">
-        <v>0.9899552407417007</v>
+        <v>0.9899972585992202</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9689171628605097</v>
+        <v>0.968961870578723</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030669516492829</v>
+        <v>1.030693922241464</v>
       </c>
       <c r="J11">
-        <v>0.994047030046825</v>
+        <v>0.9940961750027238</v>
       </c>
       <c r="K11">
-        <v>1.005069105611151</v>
+        <v>1.005110309903752</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.984450066687424</v>
+        <v>0.9844938584615274</v>
+      </c>
+      <c r="N11">
+        <v>0.9952588781985783</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9607663525446619</v>
+        <v>0.9608202863933082</v>
       </c>
       <c r="D12">
-        <v>0.9881842260088399</v>
+        <v>0.9882281761567531</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9665165783116886</v>
+        <v>0.9665634041692756</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029750107317216</v>
+        <v>1.029775629063642</v>
       </c>
       <c r="J12">
-        <v>0.9923292385665293</v>
+        <v>0.9923806127246184</v>
       </c>
       <c r="K12">
-        <v>1.003541353519435</v>
+        <v>1.003584435042165</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9823146669924215</v>
+        <v>0.9823605116987998</v>
+      </c>
+      <c r="N12">
+        <v>0.9940152535893045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9612589913690148</v>
+        <v>0.9613124053150224</v>
       </c>
       <c r="D13">
-        <v>0.988565864160917</v>
+        <v>0.9886093962056227</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.967033915510864</v>
+        <v>0.9670802825771531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029948377546376</v>
+        <v>1.029973657854026</v>
       </c>
       <c r="J13">
-        <v>0.9926995096257785</v>
+        <v>0.9927504016508104</v>
       </c>
       <c r="K13">
-        <v>1.003870669711109</v>
+        <v>1.003913345164615</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9827749075373935</v>
+        <v>0.9828203077326229</v>
+      </c>
+      <c r="N13">
+        <v>0.9942833511028359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9628641966496952</v>
+        <v>0.9629159252786056</v>
       </c>
       <c r="D14">
-        <v>0.9898096310528627</v>
+        <v>0.9898518070204915</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9687198050727934</v>
+        <v>0.9687646858980149</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03059398967081</v>
+        <v>1.03061848675294</v>
       </c>
       <c r="J14">
-        <v>0.9939058419266801</v>
+        <v>0.9939551693830821</v>
       </c>
       <c r="K14">
-        <v>1.004943540918007</v>
+        <v>1.004984898868821</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842745337455606</v>
+        <v>0.984318493366813</v>
+      </c>
+      <c r="N14">
+        <v>0.9951566777010836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9638464560476022</v>
+        <v>0.9638971599048417</v>
       </c>
       <c r="D15">
-        <v>0.9905709007316065</v>
+        <v>0.9906122515619482</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9697515954465451</v>
+        <v>0.969795573281605</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030988724534743</v>
+        <v>1.0310127449369</v>
       </c>
       <c r="J15">
-        <v>0.9946439042034412</v>
+        <v>0.9946922790468643</v>
       </c>
       <c r="K15">
-        <v>1.005599923732632</v>
+        <v>1.00564047967409</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9851921763956497</v>
+        <v>0.9852352603279328</v>
+      </c>
+      <c r="N15">
+        <v>0.9956909014111733</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9694643271628057</v>
+        <v>0.9695092621594971</v>
       </c>
       <c r="D16">
-        <v>0.9949274310199564</v>
+        <v>0.9949641288713974</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.975655139537317</v>
+        <v>0.9756940444361262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033241305538348</v>
+        <v>1.033262636346755</v>
       </c>
       <c r="J16">
-        <v>0.9988632683970625</v>
+        <v>0.9989062626181293</v>
       </c>
       <c r="K16">
-        <v>1.009351931216441</v>
+        <v>1.009387959659886</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9904402966997632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9904784547509967</v>
+      </c>
+      <c r="N16">
+        <v>0.9987434570356628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.972904831369247</v>
+        <v>0.9729463080516868</v>
       </c>
       <c r="D17">
-        <v>0.9975975381669941</v>
+        <v>0.997631440190256</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9792726848091597</v>
+        <v>0.9793085570638074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034616339661378</v>
+        <v>1.034636053035177</v>
       </c>
       <c r="J17">
-        <v>1.001445586121208</v>
+        <v>1.001485340000083</v>
       </c>
       <c r="K17">
-        <v>1.011647822777794</v>
+        <v>1.011681126684026</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9936541686532574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9936893767738617</v>
+      </c>
+      <c r="N17">
+        <v>1.000610328757942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748830513642849</v>
+        <v>0.974922564246243</v>
       </c>
       <c r="D18">
-        <v>0.9991334751073594</v>
+        <v>0.9991657873690216</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9813534502555441</v>
+        <v>0.9813876032669353</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035405308311305</v>
+        <v>1.035424101510819</v>
       </c>
       <c r="J18">
-        <v>1.002929720262047</v>
+        <v>1.002967629140708</v>
       </c>
       <c r="K18">
-        <v>1.012967182681727</v>
+        <v>1.012998935962753</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9955020018051941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9955355358205776</v>
+      </c>
+      <c r="N18">
+        <v>1.001682782840784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755528619867002</v>
+        <v>0.9755917139309064</v>
       </c>
       <c r="D19">
-        <v>0.99965364122713</v>
+        <v>0.9996854180873705</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9820581092214468</v>
+        <v>0.9820916840671554</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035672164815556</v>
+        <v>1.035690648039309</v>
       </c>
       <c r="J19">
-        <v>1.003432124706243</v>
+        <v>1.00346941181617</v>
       </c>
       <c r="K19">
-        <v>1.013413780406917</v>
+        <v>1.013445011235946</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9961276502882322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9961606210301023</v>
+      </c>
+      <c r="N19">
+        <v>1.002045742256316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9725386851472065</v>
+        <v>0.9725805272595307</v>
       </c>
       <c r="D20">
-        <v>0.9973133071988826</v>
+        <v>0.9973475048777227</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9788876194084024</v>
+        <v>0.978923811812323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034470176135678</v>
+        <v>1.034490060600658</v>
       </c>
       <c r="J20">
-        <v>1.001170836563352</v>
+        <v>1.001210933366721</v>
       </c>
       <c r="K20">
-        <v>1.011403563947739</v>
+        <v>1.011437156118572</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9933121490304716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9933476687542685</v>
+      </c>
+      <c r="N20">
+        <v>1.00041175112384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9623929218103934</v>
+        <v>0.962445143858169</v>
       </c>
       <c r="D21">
-        <v>0.9894444329894259</v>
+        <v>0.9894870061018309</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.968224808857493</v>
+        <v>0.9682701246622705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030404511927179</v>
+        <v>1.03042923840975</v>
       </c>
       <c r="J21">
-        <v>0.9935516973733972</v>
+        <v>0.9936014831636784</v>
       </c>
       <c r="K21">
-        <v>1.004628581817895</v>
+        <v>1.00467032568898</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9838342582037473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9838786395331602</v>
+      </c>
+      <c r="N21">
+        <v>0.9949003144702063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557225617279403</v>
+        <v>0.9557818927968417</v>
       </c>
       <c r="D22">
-        <v>0.9842789729931535</v>
+        <v>0.9843272570912623</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9612215918847329</v>
+        <v>0.9612731889172208</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027716754431338</v>
+        <v>1.027744777686176</v>
       </c>
       <c r="J22">
-        <v>0.9885371110798055</v>
+        <v>0.9885934759909248</v>
       </c>
       <c r="K22">
-        <v>1.000168434832565</v>
+        <v>1.000215721707523</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9776024899830066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9776529522943589</v>
+      </c>
+      <c r="N22">
+        <v>0.9912685255584869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9592880616556714</v>
+        <v>0.9593435632563361</v>
       </c>
       <c r="D23">
-        <v>0.9870392355579635</v>
+        <v>0.9870844458213973</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9649643506207835</v>
+        <v>0.9650125608098812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029154783535359</v>
+        <v>1.029181032827479</v>
       </c>
       <c r="J23">
-        <v>0.9912180168642011</v>
+        <v>0.991270843402431</v>
       </c>
       <c r="K23">
-        <v>1.002553016068297</v>
+        <v>1.002597321038766</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9809335852126631</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9809807706417644</v>
+      </c>
+      <c r="N23">
+        <v>0.9932105575349202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9727042187930782</v>
+        <v>0.9727458956194801</v>
       </c>
       <c r="D24">
-        <v>0.9974418050989324</v>
+        <v>0.9974758690578374</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9790617040273087</v>
+        <v>0.9790977516171436</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034536261373231</v>
+        <v>1.034556068458075</v>
       </c>
       <c r="J24">
-        <v>1.001295052058151</v>
+        <v>1.001334993770377</v>
       </c>
       <c r="K24">
-        <v>1.011513994939699</v>
+        <v>1.011547456737767</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9934667753553434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9935021541361856</v>
+      </c>
+      <c r="N24">
+        <v>1.000501530486487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9871637483352266</v>
+        <v>0.9871914479381978</v>
       </c>
       <c r="D25">
-        <v>1.008678661739551</v>
+        <v>1.008701377990739</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9942839172292528</v>
+        <v>0.9943077717257995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040273336670325</v>
+        <v>1.040286567805767</v>
       </c>
       <c r="J25">
-        <v>1.012130962558775</v>
+        <v>1.012157695778882</v>
       </c>
       <c r="K25">
-        <v>1.02114373014885</v>
+        <v>1.021166101461389</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.00697162088141</v>
+        <v>1.006995099609962</v>
+      </c>
+      <c r="N25">
+        <v>1.008322801253837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9979646818000246</v>
+        <v>0.9985725531318626</v>
       </c>
       <c r="D2">
-        <v>1.017086904077713</v>
+        <v>1.017979392623452</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.015048373204288</v>
       </c>
       <c r="F2">
-        <v>1.005673632006533</v>
+        <v>1.021706495442839</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044507240780812</v>
+        <v>1.046571341045974</v>
       </c>
       <c r="J2">
-        <v>1.020206439772701</v>
+        <v>1.02079604287651</v>
       </c>
       <c r="K2">
-        <v>1.028313215040864</v>
+        <v>1.029193802153897</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.026301966827851</v>
       </c>
       <c r="M2">
-        <v>1.017054486005101</v>
+        <v>1.032871485514409</v>
       </c>
       <c r="N2">
-        <v>1.014123314838512</v>
+        <v>1.022245690344337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005411508501473</v>
+        <v>1.005894923142374</v>
       </c>
       <c r="D3">
-        <v>1.022888553617535</v>
+        <v>1.023608776763031</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.021256545996901</v>
       </c>
       <c r="F3">
-        <v>1.013543016235288</v>
+        <v>1.028378606656037</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047392816763997</v>
+        <v>1.049110005442146</v>
       </c>
       <c r="J3">
-        <v>1.025755729610756</v>
+        <v>1.026226166494812</v>
       </c>
       <c r="K3">
-        <v>1.033236713402639</v>
+        <v>1.03394823399426</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.031624481975679</v>
       </c>
       <c r="M3">
-        <v>1.024005495310579</v>
+        <v>1.038660810942728</v>
       </c>
       <c r="N3">
-        <v>1.018112918761463</v>
+        <v>1.027683525361021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010072826348792</v>
+        <v>1.010488895103102</v>
       </c>
       <c r="D4">
-        <v>1.026521760551348</v>
+        <v>1.027141949145738</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.025167981103537</v>
       </c>
       <c r="F4">
-        <v>1.018474784043196</v>
+        <v>1.03257930515845</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04918389108734</v>
+        <v>1.050687739652134</v>
       </c>
       <c r="J4">
-        <v>1.029222331289919</v>
+        <v>1.029628046907388</v>
       </c>
       <c r="K4">
-        <v>1.036310291525486</v>
+        <v>1.036923469574087</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.034971851384108</v>
       </c>
       <c r="M4">
-        <v>1.0283552330826</v>
+        <v>1.042299806041435</v>
       </c>
       <c r="N4">
-        <v>1.020600648311623</v>
+        <v>1.031090236833984</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011996989522373</v>
+        <v>1.012387605555723</v>
       </c>
       <c r="D5">
-        <v>1.02802182573789</v>
+        <v>1.028602438725293</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>1.0267883984058</v>
       </c>
       <c r="F5">
-        <v>1.020512013664999</v>
+        <v>1.034318858113697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049919543735031</v>
+        <v>1.051336150646013</v>
       </c>
       <c r="J5">
-        <v>1.030651602595542</v>
+        <v>1.031032811402008</v>
       </c>
       <c r="K5">
-        <v>1.037576992052397</v>
+        <v>1.038151228042888</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>1.036357141128222</v>
       </c>
       <c r="M5">
-        <v>1.030150466615932</v>
+        <v>1.043805331656142</v>
       </c>
       <c r="N5">
-        <v>1.021625227105531</v>
+        <v>1.032496996255316</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012318046111259</v>
+        <v>1.012704548297158</v>
       </c>
       <c r="D6">
-        <v>1.028272134128899</v>
+        <v>1.028846240665532</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.027059106362343</v>
       </c>
       <c r="F6">
-        <v>1.020852019840118</v>
+        <v>1.034609428632023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050042072366083</v>
+        <v>1.051444168572857</v>
       </c>
       <c r="J6">
-        <v>1.030889981288294</v>
+        <v>1.03126722670348</v>
       </c>
       <c r="K6">
-        <v>1.037788224855556</v>
+        <v>1.038356056543613</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.036588483529301</v>
       </c>
       <c r="M6">
-        <v>1.030449991822236</v>
+        <v>1.044056727263665</v>
       </c>
       <c r="N6">
-        <v>1.021796044330861</v>
+        <v>1.032731744453403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010098673666535</v>
+        <v>1.010514391447532</v>
       </c>
       <c r="D7">
-        <v>1.026541909898051</v>
+        <v>1.027161560257309</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.025189725602986</v>
       </c>
       <c r="F7">
-        <v>1.018502144537121</v>
+        <v>1.032602651077236</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049193787819507</v>
+        <v>1.050696461314948</v>
       </c>
       <c r="J7">
-        <v>1.029241537595436</v>
+        <v>1.029646915457632</v>
       </c>
       <c r="K7">
-        <v>1.03632731535783</v>
+        <v>1.036939963927074</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.034990446409637</v>
       </c>
       <c r="M7">
-        <v>1.028379349741661</v>
+        <v>1.042320016783421</v>
       </c>
       <c r="N7">
-        <v>1.020614420829296</v>
+        <v>1.031109132179734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000515325409524</v>
+        <v>1.001078213559891</v>
       </c>
       <c r="D8">
-        <v>1.019073628868114</v>
+        <v>1.019905366014497</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>1.017169179226894</v>
       </c>
       <c r="F8">
-        <v>1.008367747749272</v>
+        <v>1.023986448955178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045498757448031</v>
+        <v>1.047443171562457</v>
       </c>
       <c r="J8">
-        <v>1.022108589726379</v>
+        <v>1.022655185300187</v>
       </c>
       <c r="K8">
-        <v>1.030001288221523</v>
+        <v>1.03082229154416</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.02812149884454</v>
       </c>
       <c r="M8">
-        <v>1.019435553113659</v>
+        <v>1.034851022593077</v>
       </c>
       <c r="N8">
-        <v>1.015491799367706</v>
+        <v>1.024107472963502</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9823130088333115</v>
+        <v>0.9832521266579303</v>
       </c>
       <c r="D9">
-        <v>1.004907783390583</v>
+        <v>1.006214485356294</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>1.002159928512564</v>
       </c>
       <c r="F9">
-        <v>0.9891675467236929</v>
+        <v>1.007836425062949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038359615072398</v>
+        <v>1.041179115527139</v>
       </c>
       <c r="J9">
-        <v>1.008506181312447</v>
+        <v>1.009410480377019</v>
       </c>
       <c r="K9">
-        <v>1.017921733928419</v>
+        <v>1.019207535139659</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>1.015218059316838</v>
       </c>
       <c r="M9">
-        <v>1.002438852373281</v>
+        <v>1.020803628442358</v>
       </c>
       <c r="N9">
-        <v>1.00568648371513</v>
+        <v>1.010843959040154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9691168791804156</v>
+        <v>0.9704127620199126</v>
       </c>
       <c r="D10">
-        <v>0.9946597187981839</v>
+        <v>0.9963743888441879</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9914602529744784</v>
       </c>
       <c r="F10">
-        <v>0.9752815041355111</v>
+        <v>0.9963031876522933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033105619387808</v>
+        <v>1.036592484341792</v>
       </c>
       <c r="J10">
-        <v>0.9986117413083352</v>
+        <v>0.9998515185990008</v>
       </c>
       <c r="K10">
-        <v>1.009126067773154</v>
+        <v>1.010809414837845</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>1.005985426237772</v>
       </c>
       <c r="M10">
-        <v>0.9901118766084719</v>
+        <v>1.010739511531479</v>
       </c>
       <c r="N10">
-        <v>0.9985301984166887</v>
+        <v>1.001271422439984</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9631036214501335</v>
+        <v>0.9645871834981995</v>
       </c>
       <c r="D11">
-        <v>0.9899972585992202</v>
+        <v>0.9919170072984282</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9866354490796555</v>
       </c>
       <c r="F11">
-        <v>0.968961870578723</v>
+        <v>0.9910969904221845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030693922241464</v>
+        <v>1.034495048390621</v>
       </c>
       <c r="J11">
-        <v>0.9940961750027238</v>
+        <v>0.9955111669967309</v>
       </c>
       <c r="K11">
-        <v>1.005110309903752</v>
+        <v>1.006992984020645</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.001813880282431</v>
       </c>
       <c r="M11">
-        <v>0.9844938584615274</v>
+        <v>1.006188780458398</v>
       </c>
       <c r="N11">
-        <v>0.9952588781985783</v>
+        <v>0.9969249070405932</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9608202863933082</v>
+        <v>0.9623794274531888</v>
       </c>
       <c r="D12">
-        <v>0.9882281761567531</v>
+        <v>0.9902290994397451</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9848118148694259</v>
       </c>
       <c r="F12">
-        <v>0.9665634041692756</v>
+        <v>0.9891283044162948</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029775629063642</v>
+        <v>1.033697850940349</v>
       </c>
       <c r="J12">
-        <v>0.9923806127246184</v>
+        <v>0.9938659357254492</v>
       </c>
       <c r="K12">
-        <v>1.003584435042165</v>
+        <v>1.005545919535838</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>1.000235898339574</v>
       </c>
       <c r="M12">
-        <v>0.9823605116987998</v>
+        <v>1.004466795578346</v>
       </c>
       <c r="N12">
-        <v>0.9940152535893045</v>
+        <v>0.9952773393521956</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9613124053150224</v>
+        <v>0.9628550526982075</v>
       </c>
       <c r="D13">
-        <v>0.9886093962056227</v>
+        <v>0.9905926676533283</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.985204462191868</v>
       </c>
       <c r="F13">
-        <v>0.9670802825771531</v>
+        <v>0.9895522245337214</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029973657854026</v>
+        <v>1.033869696475175</v>
       </c>
       <c r="J13">
-        <v>0.9927504016508104</v>
+        <v>0.9942203871414006</v>
       </c>
       <c r="K13">
-        <v>1.003913345164615</v>
+        <v>1.00585769604135</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>1.000575711358914</v>
       </c>
       <c r="M13">
-        <v>0.9828203077326229</v>
+        <v>1.004837645490124</v>
       </c>
       <c r="N13">
-        <v>0.9942833511028359</v>
+        <v>0.9956322941298138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9629159252786056</v>
+        <v>0.9644056092555974</v>
       </c>
       <c r="D14">
-        <v>0.9898518070204915</v>
+        <v>0.9917781588895471</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9864853659333934</v>
       </c>
       <c r="F14">
-        <v>0.9687646858980149</v>
+        <v>0.990934988272457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03061848675294</v>
+        <v>1.034429530003874</v>
       </c>
       <c r="J14">
-        <v>0.9939551693830821</v>
+        <v>0.9953758629940634</v>
       </c>
       <c r="K14">
-        <v>1.004984898868821</v>
+        <v>1.006873985653597</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.001684039722067</v>
       </c>
       <c r="M14">
-        <v>0.984318493366813</v>
+        <v>1.006047102725238</v>
       </c>
       <c r="N14">
-        <v>0.9951566777010836</v>
+        <v>0.996789410890722</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9638971599048417</v>
+        <v>0.9653550183493098</v>
       </c>
       <c r="D15">
-        <v>0.9906122515619482</v>
+        <v>0.9925042202491767</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9872703147823292</v>
       </c>
       <c r="F15">
-        <v>0.969795573281605</v>
+        <v>0.9917822377480499</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0310127449369</v>
+        <v>1.034772016929034</v>
       </c>
       <c r="J15">
-        <v>0.9946922790468643</v>
+        <v>0.9960833228694478</v>
       </c>
       <c r="K15">
-        <v>1.00564047967409</v>
+        <v>1.007496171673631</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.002363066615305</v>
       </c>
       <c r="M15">
-        <v>0.9852352603279328</v>
+        <v>1.006788011119226</v>
       </c>
       <c r="N15">
-        <v>0.9956909014111733</v>
+        <v>0.9974978754402767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9695092621594971</v>
+        <v>0.9707934595576412</v>
       </c>
       <c r="D16">
-        <v>0.9949641288713974</v>
+        <v>0.9966658462383673</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9917761981430253</v>
       </c>
       <c r="F16">
-        <v>0.9756940444361262</v>
+        <v>0.9966439880104159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033262636346755</v>
+        <v>1.036729223520256</v>
       </c>
       <c r="J16">
-        <v>0.9989062626181293</v>
+        <v>1.0001351029312</v>
       </c>
       <c r="K16">
-        <v>1.009387959659886</v>
+        <v>1.011058706320995</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.006258420917103</v>
       </c>
       <c r="M16">
-        <v>0.9904784547509967</v>
+        <v>1.011037245033421</v>
       </c>
       <c r="N16">
-        <v>0.9987434570356628</v>
+        <v>1.001555409494462</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9729463080516868</v>
+        <v>0.9741310238102374</v>
       </c>
       <c r="D17">
-        <v>0.997631440190256</v>
+        <v>0.9992218973528731</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9945494912408588</v>
       </c>
       <c r="F17">
-        <v>0.9793085570638074</v>
+        <v>0.9996348234868464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034636053035177</v>
+        <v>1.037926184381512</v>
       </c>
       <c r="J17">
-        <v>1.001485340000083</v>
+        <v>1.002620934655344</v>
       </c>
       <c r="K17">
-        <v>1.011681126684026</v>
+        <v>1.013243583295577</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.008653767341461</v>
       </c>
       <c r="M17">
-        <v>0.9936893767738617</v>
+        <v>1.013649258601151</v>
       </c>
       <c r="N17">
-        <v>1.000610328757942</v>
+        <v>1.004044771384783</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.974922564246243</v>
+        <v>0.9760523886883672</v>
       </c>
       <c r="D18">
-        <v>0.9991657873690216</v>
+        <v>1.000694034583131</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9961488004442237</v>
       </c>
       <c r="F18">
-        <v>0.9813876032669353</v>
+        <v>1.001359071076683</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035424101510819</v>
+        <v>1.038613705707471</v>
       </c>
       <c r="J18">
-        <v>1.002967629140708</v>
+        <v>1.004051666930487</v>
       </c>
       <c r="K18">
-        <v>1.012998935962753</v>
+        <v>1.01450079883043</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>1.010034343392717</v>
       </c>
       <c r="M18">
-        <v>0.9955355358205776</v>
+        <v>1.015154386348167</v>
       </c>
       <c r="N18">
-        <v>1.001682782840784</v>
+        <v>1.005477535463864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755917139309064</v>
+        <v>0.9767033298372516</v>
       </c>
       <c r="D19">
-        <v>0.9996854180873705</v>
+        <v>1.001192889195215</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9966910944143763</v>
       </c>
       <c r="F19">
-        <v>0.9820916840671554</v>
+        <v>1.001943643766501</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035690648039309</v>
+        <v>1.038846366069773</v>
       </c>
       <c r="J19">
-        <v>1.00346941181617</v>
+        <v>1.004536330073062</v>
       </c>
       <c r="K19">
-        <v>1.013445011235946</v>
+        <v>1.01492663047879</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>1.010502337790295</v>
       </c>
       <c r="M19">
-        <v>0.9961606210301023</v>
+        <v>1.015664547725376</v>
       </c>
       <c r="N19">
-        <v>1.002045742256316</v>
+        <v>1.005962886883693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9725805272595307</v>
+        <v>0.9737755864734114</v>
       </c>
       <c r="D20">
-        <v>0.9973475048777227</v>
+        <v>0.9989496165663805</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9942538548437585</v>
       </c>
       <c r="F20">
-        <v>0.978923811812323</v>
+        <v>0.9993160507071569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034490060600658</v>
+        <v>1.037798872348538</v>
       </c>
       <c r="J20">
-        <v>1.001210933366721</v>
+        <v>1.002356234577968</v>
       </c>
       <c r="K20">
-        <v>1.011437156118572</v>
+        <v>1.013010960880127</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.008398501450123</v>
       </c>
       <c r="M20">
-        <v>0.9933476687542685</v>
+        <v>1.013370937209435</v>
       </c>
       <c r="N20">
-        <v>1.00041175112384</v>
+        <v>1.003779695402936</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.962445143858169</v>
+        <v>0.9639502542562324</v>
       </c>
       <c r="D21">
-        <v>0.9894870061018309</v>
+        <v>0.9914299747412975</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9861090641225797</v>
       </c>
       <c r="F21">
-        <v>0.9682701246622705</v>
+        <v>0.9905287874128829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03042923840975</v>
+        <v>1.034265185088884</v>
       </c>
       <c r="J21">
-        <v>0.9936014831636784</v>
+        <v>0.9950365403098493</v>
       </c>
       <c r="K21">
-        <v>1.00467032568898</v>
+        <v>1.006575548418241</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.001358471593754</v>
       </c>
       <c r="M21">
-        <v>0.9838786395331602</v>
+        <v>1.005691844250949</v>
       </c>
       <c r="N21">
-        <v>0.9949003144702063</v>
+        <v>0.9964496063293758</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9557818927968417</v>
+        <v>0.9575164757619256</v>
       </c>
       <c r="D22">
-        <v>0.9843272570912623</v>
+        <v>0.9865139420108876</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9808043465689285</v>
       </c>
       <c r="F22">
-        <v>0.9612731889172208</v>
+        <v>0.9848003465391839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027744777686176</v>
+        <v>1.031937775875268</v>
       </c>
       <c r="J22">
-        <v>0.9885934759909248</v>
+        <v>0.9902415762537056</v>
       </c>
       <c r="K22">
-        <v>1.000215721707523</v>
+        <v>1.002357379476587</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.996765911381438</v>
       </c>
       <c r="M22">
-        <v>0.9776529522943589</v>
+        <v>1.000679047152827</v>
       </c>
       <c r="N22">
-        <v>0.9912685255584869</v>
+        <v>0.9916478328742822</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9593435632563361</v>
+        <v>0.9609528779089754</v>
       </c>
       <c r="D23">
-        <v>0.9870844458213973</v>
+        <v>0.9891388589274066</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9836348833342582</v>
       </c>
       <c r="F23">
-        <v>0.9650125608098812</v>
+        <v>0.9878574978700695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029181032827479</v>
+        <v>1.033182103702537</v>
       </c>
       <c r="J23">
-        <v>0.991270843402431</v>
+        <v>0.9928027860672075</v>
       </c>
       <c r="K23">
-        <v>1.002597321038766</v>
+        <v>1.004610711258271</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9992171476364271</v>
       </c>
       <c r="M23">
-        <v>0.9809807706417644</v>
+        <v>1.003354910311829</v>
       </c>
       <c r="N23">
-        <v>0.9932105575349202</v>
+        <v>0.9942126798994942</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9727458956194801</v>
+        <v>0.9739362714484858</v>
       </c>
       <c r="D24">
-        <v>0.9974758690578374</v>
+        <v>0.9990727063200039</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9943874965784247</v>
       </c>
       <c r="F24">
-        <v>0.9790977516171436</v>
+        <v>0.9994601527814055</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034556068458075</v>
+        <v>1.037856431972165</v>
       </c>
       <c r="J24">
-        <v>1.001334993770377</v>
+        <v>1.002475900310783</v>
       </c>
       <c r="K24">
-        <v>1.011547456737767</v>
+        <v>1.013116125867134</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>1.00851389620751</v>
       </c>
       <c r="M24">
-        <v>0.9935021541361856</v>
+        <v>1.013496755378968</v>
       </c>
       <c r="N24">
-        <v>1.000501530486487</v>
+        <v>1.003899531074817</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9871914479381978</v>
+        <v>0.9880169462635564</v>
       </c>
       <c r="D25">
-        <v>1.008701377990739</v>
+        <v>1.009871151912974</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>1.0061540536357</v>
       </c>
       <c r="F25">
-        <v>0.9943077717257995</v>
+        <v>1.012137392337443</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040286567805767</v>
+        <v>1.042866613386734</v>
       </c>
       <c r="J25">
-        <v>1.012157695778882</v>
+        <v>1.012954428896925</v>
       </c>
       <c r="K25">
-        <v>1.021166101461389</v>
+        <v>1.022318139482223</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>1.018657581153302</v>
       </c>
       <c r="M25">
-        <v>1.006995099609962</v>
+        <v>1.024550168097742</v>
       </c>
       <c r="N25">
-        <v>1.008322801253837</v>
+        <v>1.014392940373455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9985725531318626</v>
+        <v>1.051260241429674</v>
       </c>
       <c r="D2">
-        <v>1.017979392623452</v>
+        <v>1.063184927929157</v>
       </c>
       <c r="E2">
-        <v>1.015048373204288</v>
+        <v>1.050063569401905</v>
       </c>
       <c r="F2">
-        <v>1.021706495442839</v>
+        <v>1.06703733940235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046571341045974</v>
+        <v>1.074694531267455</v>
       </c>
       <c r="J2">
-        <v>1.02079604287651</v>
+        <v>1.072008863075877</v>
       </c>
       <c r="K2">
-        <v>1.029193802153897</v>
+        <v>1.073828964839008</v>
       </c>
       <c r="L2">
-        <v>1.026301966827851</v>
+        <v>1.060866866125782</v>
       </c>
       <c r="M2">
-        <v>1.032871485514409</v>
+        <v>1.077635539588078</v>
       </c>
       <c r="N2">
-        <v>1.022245690344337</v>
+        <v>1.07353123862258</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005894923142374</v>
+        <v>1.057243998574383</v>
       </c>
       <c r="D3">
-        <v>1.023608776763031</v>
+        <v>1.067888652559442</v>
       </c>
       <c r="E3">
-        <v>1.021256545996901</v>
+        <v>1.055072254711691</v>
       </c>
       <c r="F3">
-        <v>1.028378606656037</v>
+        <v>1.072213214713269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049110005442146</v>
+        <v>1.077259298862639</v>
       </c>
       <c r="J3">
-        <v>1.026226166494812</v>
+        <v>1.076287095253533</v>
       </c>
       <c r="K3">
-        <v>1.03394823399426</v>
+        <v>1.07772076957325</v>
       </c>
       <c r="L3">
-        <v>1.031624481975679</v>
+        <v>1.065045823991828</v>
       </c>
       <c r="M3">
-        <v>1.038660810942728</v>
+        <v>1.081998537847118</v>
       </c>
       <c r="N3">
-        <v>1.027683525361021</v>
+        <v>1.077815546380649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010488895103102</v>
+        <v>1.061021312630159</v>
       </c>
       <c r="D4">
-        <v>1.027141949145738</v>
+        <v>1.070860550570805</v>
       </c>
       <c r="E4">
-        <v>1.025167981103537</v>
+        <v>1.058242964806371</v>
       </c>
       <c r="F4">
-        <v>1.03257930515845</v>
+        <v>1.075487400288456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050687739652134</v>
+        <v>1.078867973739227</v>
       </c>
       <c r="J4">
-        <v>1.029628046907388</v>
+        <v>1.078983173214938</v>
       </c>
       <c r="K4">
-        <v>1.036923469574087</v>
+        <v>1.080172843550347</v>
       </c>
       <c r="L4">
-        <v>1.034971851384108</v>
+        <v>1.067685815122945</v>
       </c>
       <c r="M4">
-        <v>1.042299806041435</v>
+        <v>1.084752752574596</v>
       </c>
       <c r="N4">
-        <v>1.031090236833984</v>
+        <v>1.080515453082002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012387605555723</v>
+        <v>1.062587652371044</v>
       </c>
       <c r="D5">
-        <v>1.028602438725293</v>
+        <v>1.072093473479985</v>
       </c>
       <c r="E5">
-        <v>1.0267883984058</v>
+        <v>1.05955982313008</v>
       </c>
       <c r="F5">
-        <v>1.034318858113697</v>
+        <v>1.076846683248777</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051336150646013</v>
+        <v>1.07953251497745</v>
       </c>
       <c r="J5">
-        <v>1.031032811402008</v>
+        <v>1.080100010619179</v>
       </c>
       <c r="K5">
-        <v>1.038151228042888</v>
+        <v>1.081188474862365</v>
       </c>
       <c r="L5">
-        <v>1.036357141128222</v>
+        <v>1.068780944272344</v>
       </c>
       <c r="M5">
-        <v>1.043805331656142</v>
+        <v>1.085894787339403</v>
       </c>
       <c r="N5">
-        <v>1.032496996255316</v>
+        <v>1.081633876523461</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012704548297158</v>
+        <v>1.062849406407812</v>
       </c>
       <c r="D6">
-        <v>1.028846240665532</v>
+        <v>1.072299541048508</v>
       </c>
       <c r="E6">
-        <v>1.027059106362343</v>
+        <v>1.059780004649447</v>
       </c>
       <c r="F6">
-        <v>1.034609428632023</v>
+        <v>1.077073926328785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051444168572857</v>
+        <v>1.079643417888229</v>
       </c>
       <c r="J6">
-        <v>1.03126722670348</v>
+        <v>1.080286578917761</v>
       </c>
       <c r="K6">
-        <v>1.038356056543613</v>
+        <v>1.081358128706225</v>
       </c>
       <c r="L6">
-        <v>1.036588483529301</v>
+        <v>1.068963975128821</v>
       </c>
       <c r="M6">
-        <v>1.044056727263665</v>
+        <v>1.086085629923481</v>
       </c>
       <c r="N6">
-        <v>1.032731744453403</v>
+        <v>1.081820709770426</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010514391447532</v>
+        <v>1.061042325906085</v>
       </c>
       <c r="D7">
-        <v>1.027161560257309</v>
+        <v>1.070877088729895</v>
       </c>
       <c r="E7">
-        <v>1.025189725602986</v>
+        <v>1.05826062311962</v>
       </c>
       <c r="F7">
-        <v>1.032602651077236</v>
+        <v>1.075505629647383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050696461314948</v>
+        <v>1.078876898961788</v>
       </c>
       <c r="J7">
-        <v>1.029646915457632</v>
+        <v>1.078998160762923</v>
       </c>
       <c r="K7">
-        <v>1.036939963927074</v>
+        <v>1.080186473474777</v>
       </c>
       <c r="L7">
-        <v>1.034990446409637</v>
+        <v>1.067700505355682</v>
       </c>
       <c r="M7">
-        <v>1.042320016783421</v>
+        <v>1.084768073875914</v>
       </c>
       <c r="N7">
-        <v>1.031109132179734</v>
+        <v>1.080530461914025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001078213559891</v>
+        <v>1.053302684970064</v>
       </c>
       <c r="D8">
-        <v>1.019905366014497</v>
+        <v>1.064789865849306</v>
       </c>
       <c r="E8">
-        <v>1.017169179226894</v>
+        <v>1.051771262984662</v>
       </c>
       <c r="F8">
-        <v>1.023986448955178</v>
+        <v>1.068802542020582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047443171562457</v>
+        <v>1.075572119943957</v>
       </c>
       <c r="J8">
-        <v>1.022655185300187</v>
+        <v>1.073470099987804</v>
       </c>
       <c r="K8">
-        <v>1.03082229154416</v>
+        <v>1.075158310624091</v>
       </c>
       <c r="L8">
-        <v>1.02812149884454</v>
+        <v>1.062292814728055</v>
       </c>
       <c r="M8">
-        <v>1.034851022593077</v>
+        <v>1.079124723767376</v>
       </c>
       <c r="N8">
-        <v>1.024107472963502</v>
+        <v>1.074994550658528</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9832521266579303</v>
+        <v>1.038891667140397</v>
       </c>
       <c r="D9">
-        <v>1.006214485356294</v>
+        <v>1.053479795051964</v>
       </c>
       <c r="E9">
-        <v>1.002159928512564</v>
+        <v>1.039763991575769</v>
       </c>
       <c r="F9">
-        <v>1.007836425062949</v>
+        <v>1.056380117913937</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041179115527139</v>
+        <v>1.06933751251654</v>
       </c>
       <c r="J9">
-        <v>1.009410480377019</v>
+        <v>1.063142044787229</v>
       </c>
       <c r="K9">
-        <v>1.019207535139659</v>
+        <v>1.065760947995582</v>
       </c>
       <c r="L9">
-        <v>1.015218059316838</v>
+        <v>1.052243264218088</v>
       </c>
       <c r="M9">
-        <v>1.020803628442358</v>
+        <v>1.068620209675836</v>
       </c>
       <c r="N9">
-        <v>1.010843959040154</v>
+        <v>1.064651828434924</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9704127620199126</v>
+        <v>1.028690920436404</v>
       </c>
       <c r="D10">
-        <v>0.9963743888441879</v>
+        <v>1.045495286156562</v>
       </c>
       <c r="E10">
-        <v>0.9914602529744784</v>
+        <v>1.031322568617153</v>
       </c>
       <c r="F10">
-        <v>0.9963031876522933</v>
+        <v>1.047632178153296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036592484341792</v>
+        <v>1.064872216998009</v>
       </c>
       <c r="J10">
-        <v>0.9998515185990008</v>
+        <v>1.05581070177364</v>
       </c>
       <c r="K10">
-        <v>1.010809414837845</v>
+        <v>1.059088980319065</v>
       </c>
       <c r="L10">
-        <v>1.005985426237772</v>
+        <v>1.045148412864648</v>
       </c>
       <c r="M10">
-        <v>1.010739511531479</v>
+        <v>1.061191568652573</v>
       </c>
       <c r="N10">
-        <v>1.001271422439984</v>
+        <v>1.057310074073339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9645871834981995</v>
+        <v>1.024114640567644</v>
       </c>
       <c r="D11">
-        <v>0.9919170072984282</v>
+        <v>1.041919491135857</v>
       </c>
       <c r="E11">
-        <v>0.9866354490796555</v>
+        <v>1.027550884326443</v>
       </c>
       <c r="F11">
-        <v>0.9910969904221845</v>
+        <v>1.043719733513585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034495048390621</v>
+        <v>1.062857321529814</v>
       </c>
       <c r="J11">
-        <v>0.9955111669967309</v>
+        <v>1.052517528424621</v>
       </c>
       <c r="K11">
-        <v>1.006992984020645</v>
+        <v>1.056091919685078</v>
       </c>
       <c r="L11">
-        <v>1.001813880282431</v>
+        <v>1.041971285365472</v>
       </c>
       <c r="M11">
-        <v>1.006188780458398</v>
+        <v>1.05786171450357</v>
       </c>
       <c r="N11">
-        <v>0.9969249070405932</v>
+        <v>1.054012224040431</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9623794274531888</v>
+        <v>1.02238912122297</v>
       </c>
       <c r="D12">
-        <v>0.9902290994397451</v>
+        <v>1.040572258066042</v>
       </c>
       <c r="E12">
-        <v>0.9848118148694259</v>
+        <v>1.026131194578352</v>
       </c>
       <c r="F12">
-        <v>0.9891283044162948</v>
+        <v>1.042246457492034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033697850940349</v>
+        <v>1.062095904184394</v>
       </c>
       <c r="J12">
-        <v>0.9938659357254492</v>
+        <v>1.051275255558242</v>
       </c>
       <c r="K12">
-        <v>1.005545919535838</v>
+        <v>1.054961358691137</v>
       </c>
       <c r="L12">
-        <v>1.000235898339574</v>
+        <v>1.040774320476763</v>
       </c>
       <c r="M12">
-        <v>1.004466795578346</v>
+        <v>1.056606696873101</v>
       </c>
       <c r="N12">
-        <v>0.9952773393521956</v>
+        <v>1.052768187004091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9628550526982075</v>
+        <v>1.022760443310428</v>
       </c>
       <c r="D13">
-        <v>0.9905926676533283</v>
+        <v>1.040862125965053</v>
       </c>
       <c r="E13">
-        <v>0.985204462191868</v>
+        <v>1.026436590647753</v>
       </c>
       <c r="F13">
-        <v>0.9895522245337214</v>
+        <v>1.042563408524586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033869696475175</v>
+        <v>1.06225983197125</v>
       </c>
       <c r="J13">
-        <v>0.9942203871414006</v>
+        <v>1.051542609758027</v>
       </c>
       <c r="K13">
-        <v>1.00585769604135</v>
+        <v>1.055204670140153</v>
       </c>
       <c r="L13">
-        <v>1.000575711358914</v>
+        <v>1.041031853597121</v>
       </c>
       <c r="M13">
-        <v>1.004837645490124</v>
+        <v>1.056876743972798</v>
       </c>
       <c r="N13">
-        <v>0.9956322941298138</v>
+        <v>1.053035920877507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9644056092555974</v>
+        <v>1.023972543314282</v>
       </c>
       <c r="D14">
-        <v>0.9917781588895471</v>
+        <v>1.041808524012621</v>
       </c>
       <c r="E14">
-        <v>0.9864853659333934</v>
+        <v>1.02743392160626</v>
       </c>
       <c r="F14">
-        <v>0.990934988272457</v>
+        <v>1.043598368468984</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034429530003874</v>
+        <v>1.062794652329879</v>
       </c>
       <c r="J14">
-        <v>0.9953758629940634</v>
+        <v>1.052415237642218</v>
       </c>
       <c r="K14">
-        <v>1.006873985653597</v>
+        <v>1.055998827105491</v>
       </c>
       <c r="L14">
-        <v>1.001684039722067</v>
+        <v>1.041872693856282</v>
       </c>
       <c r="M14">
-        <v>1.006047102725238</v>
+        <v>1.05775835189911</v>
       </c>
       <c r="N14">
-        <v>0.996789410890722</v>
+        <v>1.053909787993386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9653550183493098</v>
+        <v>1.024715899264135</v>
       </c>
       <c r="D15">
-        <v>0.9925042202491767</v>
+        <v>1.042389071608833</v>
       </c>
       <c r="E15">
-        <v>0.9872703147823292</v>
+        <v>1.028045891500224</v>
       </c>
       <c r="F15">
-        <v>0.9917822377480499</v>
+        <v>1.044233347355646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034772016929034</v>
+        <v>1.063122426614519</v>
       </c>
       <c r="J15">
-        <v>0.9960833228694478</v>
+        <v>1.05295033097937</v>
       </c>
       <c r="K15">
-        <v>1.007496171673631</v>
+        <v>1.056485804268868</v>
       </c>
       <c r="L15">
-        <v>1.002363066615305</v>
+        <v>1.042388498646639</v>
       </c>
       <c r="M15">
-        <v>1.006788011119226</v>
+        <v>1.058299096724105</v>
       </c>
       <c r="N15">
-        <v>0.9974978754402767</v>
+        <v>1.054445641224451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9707934595576412</v>
+        <v>1.028991131101971</v>
       </c>
       <c r="D16">
-        <v>0.9966658462383673</v>
+        <v>1.045730002055015</v>
       </c>
       <c r="E16">
-        <v>0.9917761981430253</v>
+        <v>1.031570327167592</v>
       </c>
       <c r="F16">
-        <v>0.9966439880104159</v>
+        <v>1.047889101370468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036729223520256</v>
+        <v>1.065004160257756</v>
       </c>
       <c r="J16">
-        <v>1.0001351029312</v>
+        <v>1.056026657790321</v>
       </c>
       <c r="K16">
-        <v>1.011058706320995</v>
+        <v>1.059285518426498</v>
       </c>
       <c r="L16">
-        <v>1.006258420917103</v>
+        <v>1.04535696747597</v>
       </c>
       <c r="M16">
-        <v>1.011037245033421</v>
+        <v>1.061410078941777</v>
       </c>
       <c r="N16">
-        <v>1.001555409494462</v>
+        <v>1.057526336772334</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9741310238102374</v>
+        <v>1.031629038239922</v>
       </c>
       <c r="D17">
-        <v>0.9992218973528731</v>
+        <v>1.047793135212571</v>
       </c>
       <c r="E17">
-        <v>0.9945494912408588</v>
+        <v>1.03374909930194</v>
       </c>
       <c r="F17">
-        <v>0.9996348234868464</v>
+        <v>1.050148031020413</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037926184381512</v>
+        <v>1.066162211321378</v>
       </c>
       <c r="J17">
-        <v>1.002620934655344</v>
+        <v>1.057923766529937</v>
       </c>
       <c r="K17">
-        <v>1.013243583295577</v>
+        <v>1.061012040826063</v>
       </c>
       <c r="L17">
-        <v>1.008653767341461</v>
+        <v>1.047190175656031</v>
       </c>
       <c r="M17">
-        <v>1.013649258601151</v>
+        <v>1.063330426186734</v>
       </c>
       <c r="N17">
-        <v>1.004044771384783</v>
+        <v>1.059426139623962</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9760523886883672</v>
+        <v>1.033152442745777</v>
       </c>
       <c r="D18">
-        <v>1.000694034583131</v>
+        <v>1.048985185900626</v>
       </c>
       <c r="E18">
-        <v>0.9961488004442237</v>
+        <v>1.035008788195726</v>
       </c>
       <c r="F18">
-        <v>1.001359071076683</v>
+        <v>1.051453705905241</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038613705707471</v>
+        <v>1.066829885128866</v>
       </c>
       <c r="J18">
-        <v>1.004051666930487</v>
+        <v>1.059018957526052</v>
       </c>
       <c r="K18">
-        <v>1.01450079883043</v>
+        <v>1.062008744888382</v>
       </c>
       <c r="L18">
-        <v>1.010034343392717</v>
+        <v>1.048249399676919</v>
       </c>
       <c r="M18">
-        <v>1.015154386348167</v>
+        <v>1.064439693118979</v>
       </c>
       <c r="N18">
-        <v>1.005477535463864</v>
+        <v>1.060522885916911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9767033298372516</v>
+        <v>1.033669349553433</v>
       </c>
       <c r="D19">
-        <v>1.001192889195215</v>
+        <v>1.049389756379295</v>
       </c>
       <c r="E19">
-        <v>0.9966910944143763</v>
+        <v>1.035436453145541</v>
       </c>
       <c r="F19">
-        <v>1.001943643766501</v>
+        <v>1.05189692323185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038846366069773</v>
+        <v>1.06705624414556</v>
       </c>
       <c r="J19">
-        <v>1.004536330073062</v>
+        <v>1.059390497498162</v>
       </c>
       <c r="K19">
-        <v>1.01492663047879</v>
+        <v>1.06234687147363</v>
       </c>
       <c r="L19">
-        <v>1.010502337790295</v>
+        <v>1.048608892824731</v>
       </c>
       <c r="M19">
-        <v>1.015664547725376</v>
+        <v>1.064816119302322</v>
       </c>
       <c r="N19">
-        <v>1.005962886883693</v>
+        <v>1.060894953518397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9737755864734114</v>
+        <v>1.031347604471996</v>
       </c>
       <c r="D20">
-        <v>0.9989496165663805</v>
+        <v>1.047572962008897</v>
       </c>
       <c r="E20">
-        <v>0.9942538548437585</v>
+        <v>1.033516499619647</v>
       </c>
       <c r="F20">
-        <v>0.9993160507071569</v>
+        <v>1.049906911336767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037798872348538</v>
+        <v>1.066038775279462</v>
       </c>
       <c r="J20">
-        <v>1.002356234577968</v>
+        <v>1.057721408199665</v>
       </c>
       <c r="K20">
-        <v>1.013010960880127</v>
+        <v>1.060827879097522</v>
       </c>
       <c r="L20">
-        <v>1.008398501450123</v>
+        <v>1.046994537198791</v>
       </c>
       <c r="M20">
-        <v>1.013370937209435</v>
+        <v>1.063125520243983</v>
       </c>
       <c r="N20">
-        <v>1.003779695402936</v>
+        <v>1.05922349392165</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9639502542562324</v>
+        <v>1.023616334048186</v>
       </c>
       <c r="D21">
-        <v>0.9914299747412975</v>
+        <v>1.041530368957432</v>
       </c>
       <c r="E21">
-        <v>0.9861090641225797</v>
+        <v>1.027140759543045</v>
       </c>
       <c r="F21">
-        <v>0.9905287874128829</v>
+        <v>1.043294162346173</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034265185088884</v>
+        <v>1.062637526325892</v>
       </c>
       <c r="J21">
-        <v>0.9950365403098493</v>
+        <v>1.052158806461653</v>
       </c>
       <c r="K21">
-        <v>1.006575548418241</v>
+        <v>1.055765454997227</v>
       </c>
       <c r="L21">
-        <v>1.001358471593754</v>
+        <v>1.041625561194039</v>
       </c>
       <c r="M21">
-        <v>1.005691844250949</v>
+        <v>1.057499251493661</v>
       </c>
       <c r="N21">
-        <v>0.9964496063293758</v>
+        <v>1.05365299265113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9575164757619256</v>
+        <v>1.018605774123375</v>
       </c>
       <c r="D22">
-        <v>0.9865139420108876</v>
+        <v>1.037620391615634</v>
       </c>
       <c r="E22">
-        <v>0.9808043465689285</v>
+        <v>1.023023094062865</v>
       </c>
       <c r="F22">
-        <v>0.9848003465391839</v>
+        <v>1.039019894816778</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031937775875268</v>
+        <v>1.060423404028143</v>
       </c>
       <c r="J22">
-        <v>0.9902415762537056</v>
+        <v>1.048550520055612</v>
       </c>
       <c r="K22">
-        <v>1.002357379476587</v>
+        <v>1.052481689823821</v>
       </c>
       <c r="L22">
-        <v>0.996765911381438</v>
+        <v>1.038151852299449</v>
       </c>
       <c r="M22">
-        <v>1.000679047152827</v>
+        <v>1.053856063354596</v>
       </c>
       <c r="N22">
-        <v>0.9916478328742822</v>
+        <v>1.050039582064517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9609528779089754</v>
+        <v>1.021276778559557</v>
       </c>
       <c r="D23">
-        <v>0.9891388589274066</v>
+        <v>1.039704084094145</v>
       </c>
       <c r="E23">
-        <v>0.9836348833342582</v>
+        <v>1.025216713078368</v>
       </c>
       <c r="F23">
-        <v>0.9878574978700695</v>
+        <v>1.041297284740228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033182103702537</v>
+        <v>1.061604595791209</v>
       </c>
       <c r="J23">
-        <v>0.9928027860672075</v>
+        <v>1.050474285742761</v>
       </c>
       <c r="K23">
-        <v>1.004610711258271</v>
+        <v>1.054232422077771</v>
       </c>
       <c r="L23">
-        <v>0.9992171476364271</v>
+        <v>1.040003003097618</v>
       </c>
       <c r="M23">
-        <v>1.003354910311829</v>
+        <v>1.055797822479581</v>
       </c>
       <c r="N23">
-        <v>0.9942126798994942</v>
+        <v>1.0519660797196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9739362714484858</v>
+        <v>1.031474819250549</v>
       </c>
       <c r="D24">
-        <v>0.9990727063200039</v>
+        <v>1.047672483755795</v>
       </c>
       <c r="E24">
-        <v>0.9943874965784247</v>
+        <v>1.033621635777516</v>
       </c>
       <c r="F24">
-        <v>0.9994601527814055</v>
+        <v>1.050015899684467</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037856431972165</v>
+        <v>1.066094574754301</v>
       </c>
       <c r="J24">
-        <v>1.002475900310783</v>
+        <v>1.057812880236059</v>
       </c>
       <c r="K24">
-        <v>1.013116125867134</v>
+        <v>1.06091112575143</v>
       </c>
       <c r="L24">
-        <v>1.00851389620751</v>
+        <v>1.047082968792097</v>
       </c>
       <c r="M24">
-        <v>1.013496755378968</v>
+        <v>1.063218141830468</v>
       </c>
       <c r="N24">
-        <v>1.003899531074817</v>
+        <v>1.059315095858828</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880169462635564</v>
+        <v>1.04271605244742</v>
       </c>
       <c r="D25">
-        <v>1.009871151912974</v>
+        <v>1.056477976283822</v>
       </c>
       <c r="E25">
-        <v>1.0061540536357</v>
+        <v>1.04294104804411</v>
       </c>
       <c r="F25">
-        <v>1.012137392337443</v>
+        <v>1.059669440416787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042866613386734</v>
+        <v>1.071001206399969</v>
       </c>
       <c r="J25">
-        <v>1.012954428896925</v>
+        <v>1.065886669425988</v>
       </c>
       <c r="K25">
-        <v>1.022318139482223</v>
+        <v>1.068258534729654</v>
       </c>
       <c r="L25">
-        <v>1.018657581153302</v>
+        <v>1.054907422678812</v>
       </c>
       <c r="M25">
-        <v>1.024550168097742</v>
+        <v>1.071407059907891</v>
       </c>
       <c r="N25">
-        <v>1.014392940373455</v>
+        <v>1.067400350755483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051260241429674</v>
+        <v>1.073280345737345</v>
       </c>
       <c r="D2">
-        <v>1.063184927929157</v>
+        <v>1.074935624116435</v>
       </c>
       <c r="E2">
-        <v>1.050063569401905</v>
+        <v>1.073788146056183</v>
       </c>
       <c r="F2">
-        <v>1.06703733940235</v>
+        <v>1.085898064434198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074694531267455</v>
+        <v>1.062838976369312</v>
       </c>
       <c r="J2">
-        <v>1.072008863075877</v>
+        <v>1.078195648215931</v>
       </c>
       <c r="K2">
-        <v>1.073828964839008</v>
+        <v>1.077623521230847</v>
       </c>
       <c r="L2">
-        <v>1.060866866125782</v>
+        <v>1.076479079362058</v>
       </c>
       <c r="M2">
-        <v>1.077635539588078</v>
+        <v>1.088557304461367</v>
       </c>
       <c r="N2">
-        <v>1.07353123862258</v>
+        <v>1.079726809707167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057243998574383</v>
+        <v>1.074490341832935</v>
       </c>
       <c r="D3">
-        <v>1.067888652559442</v>
+        <v>1.07589904721996</v>
       </c>
       <c r="E3">
-        <v>1.055072254711691</v>
+        <v>1.07487097545955</v>
       </c>
       <c r="F3">
-        <v>1.072213214713269</v>
+        <v>1.086997221257491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077259298862639</v>
+        <v>1.06327727759803</v>
       </c>
       <c r="J3">
-        <v>1.076287095253533</v>
+        <v>1.079063045818735</v>
       </c>
       <c r="K3">
-        <v>1.07772076957325</v>
+        <v>1.078403805076103</v>
       </c>
       <c r="L3">
-        <v>1.065045823991828</v>
+        <v>1.077378256750572</v>
       </c>
       <c r="M3">
-        <v>1.081998537847118</v>
+        <v>1.089475064848211</v>
       </c>
       <c r="N3">
-        <v>1.077815546380649</v>
+        <v>1.080595439114059</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061021312630159</v>
+        <v>1.075272999948233</v>
       </c>
       <c r="D4">
-        <v>1.070860550570805</v>
+        <v>1.076522159017157</v>
       </c>
       <c r="E4">
-        <v>1.058242964806371</v>
+        <v>1.075571876483327</v>
       </c>
       <c r="F4">
-        <v>1.075487400288456</v>
+        <v>1.087708569241472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078867973739227</v>
+        <v>1.063559487409291</v>
       </c>
       <c r="J4">
-        <v>1.078983173214938</v>
+        <v>1.079623447150523</v>
       </c>
       <c r="K4">
-        <v>1.080172843550347</v>
+        <v>1.078907789216614</v>
       </c>
       <c r="L4">
-        <v>1.067685815122945</v>
+        <v>1.077959721671917</v>
       </c>
       <c r="M4">
-        <v>1.084752752574596</v>
+        <v>1.090068437020389</v>
       </c>
       <c r="N4">
-        <v>1.080515453082002</v>
+        <v>1.081156636280017</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.062587652371044</v>
+        <v>1.075601961700283</v>
       </c>
       <c r="D5">
-        <v>1.072093473479985</v>
+        <v>1.076784047168979</v>
       </c>
       <c r="E5">
-        <v>1.05955982313008</v>
+        <v>1.075866592942895</v>
       </c>
       <c r="F5">
-        <v>1.076846683248777</v>
+        <v>1.088007649484622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07953251497745</v>
+        <v>1.063677793741126</v>
       </c>
       <c r="J5">
-        <v>1.080100010619179</v>
+        <v>1.079858834325368</v>
       </c>
       <c r="K5">
-        <v>1.081188474862365</v>
+        <v>1.079119446717996</v>
       </c>
       <c r="L5">
-        <v>1.068780944272344</v>
+        <v>1.078204083313955</v>
       </c>
       <c r="M5">
-        <v>1.085894787339403</v>
+        <v>1.090317776529258</v>
       </c>
       <c r="N5">
-        <v>1.081633876523461</v>
+        <v>1.081392357731649</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.062849406407812</v>
+        <v>1.075657191906378</v>
       </c>
       <c r="D6">
-        <v>1.072299541048508</v>
+        <v>1.076828015373486</v>
       </c>
       <c r="E6">
-        <v>1.059780004649447</v>
+        <v>1.075916080535221</v>
       </c>
       <c r="F6">
-        <v>1.077073926328785</v>
+        <v>1.08805786813012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079643417888229</v>
+        <v>1.063697638286435</v>
       </c>
       <c r="J6">
-        <v>1.080286578917761</v>
+        <v>1.07989834484475</v>
       </c>
       <c r="K6">
-        <v>1.081358128706225</v>
+        <v>1.079154972217615</v>
       </c>
       <c r="L6">
-        <v>1.068963975128821</v>
+        <v>1.078245107673444</v>
       </c>
       <c r="M6">
-        <v>1.086085629923481</v>
+        <v>1.0903596350593</v>
       </c>
       <c r="N6">
-        <v>1.081820709770426</v>
+        <v>1.081431924360501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061042325906085</v>
+        <v>1.075277395815132</v>
       </c>
       <c r="D7">
-        <v>1.070877088729895</v>
+        <v>1.076525658645901</v>
       </c>
       <c r="E7">
-        <v>1.05826062311962</v>
+        <v>1.07557581427161</v>
       </c>
       <c r="F7">
-        <v>1.075505629647383</v>
+        <v>1.087712565449178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078876898961788</v>
+        <v>1.063561069538592</v>
       </c>
       <c r="J7">
-        <v>1.078998160762923</v>
+        <v>1.079626593211824</v>
       </c>
       <c r="K7">
-        <v>1.080186473474777</v>
+        <v>1.078910618247827</v>
       </c>
       <c r="L7">
-        <v>1.067700505355682</v>
+        <v>1.077962987182025</v>
       </c>
       <c r="M7">
-        <v>1.084768073875914</v>
+        <v>1.090071769154647</v>
       </c>
       <c r="N7">
-        <v>1.080530461914025</v>
+        <v>1.081159786809086</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.053302684970064</v>
+        <v>1.073689330750928</v>
       </c>
       <c r="D8">
-        <v>1.064789865849306</v>
+        <v>1.075261277419398</v>
       </c>
       <c r="E8">
-        <v>1.051771262984662</v>
+        <v>1.074154044461827</v>
       </c>
       <c r="F8">
-        <v>1.068802542020582</v>
+        <v>1.086269505269966</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075572119943957</v>
+        <v>1.062987392633449</v>
       </c>
       <c r="J8">
-        <v>1.073470099987804</v>
+        <v>1.07848896859562</v>
       </c>
       <c r="K8">
-        <v>1.075158310624091</v>
+        <v>1.077887411077961</v>
       </c>
       <c r="L8">
-        <v>1.062292814728055</v>
+        <v>1.076783036139567</v>
       </c>
       <c r="M8">
-        <v>1.079124723767376</v>
+        <v>1.088867565784741</v>
       </c>
       <c r="N8">
-        <v>1.074994550658528</v>
+        <v>1.08002054663544</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.038891667140397</v>
+        <v>1.070888654597183</v>
       </c>
       <c r="D9">
-        <v>1.053479795051964</v>
+        <v>1.073031041198305</v>
       </c>
       <c r="E9">
-        <v>1.039763991575769</v>
+        <v>1.071650495751559</v>
       </c>
       <c r="F9">
-        <v>1.056380117913937</v>
+        <v>1.083727531065973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06933751251654</v>
+        <v>1.061965748975837</v>
       </c>
       <c r="J9">
-        <v>1.063142044787229</v>
+        <v>1.076477672914076</v>
       </c>
       <c r="K9">
-        <v>1.065760947995582</v>
+        <v>1.076077369545346</v>
       </c>
       <c r="L9">
-        <v>1.052243264218088</v>
+        <v>1.074701000676719</v>
       </c>
       <c r="M9">
-        <v>1.068620209675836</v>
+        <v>1.08674189189661</v>
       </c>
       <c r="N9">
-        <v>1.064651828434924</v>
+        <v>1.078006394683329</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.028690920436404</v>
+        <v>1.069019875583096</v>
       </c>
       <c r="D10">
-        <v>1.045495286156562</v>
+        <v>1.0715426642321</v>
       </c>
       <c r="E10">
-        <v>1.031322568617153</v>
+        <v>1.069982621152986</v>
       </c>
       <c r="F10">
-        <v>1.047632178153296</v>
+        <v>1.082033420282699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064872216998009</v>
+        <v>1.061277386202664</v>
       </c>
       <c r="J10">
-        <v>1.05581070177364</v>
+        <v>1.075132266516424</v>
       </c>
       <c r="K10">
-        <v>1.059088980319065</v>
+        <v>1.074865901146401</v>
       </c>
       <c r="L10">
-        <v>1.045148412864648</v>
+        <v>1.07331104146077</v>
       </c>
       <c r="M10">
-        <v>1.061191568652573</v>
+        <v>1.085322226125674</v>
       </c>
       <c r="N10">
-        <v>1.057310074073339</v>
+        <v>1.076659077654271</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.024114640567644</v>
+        <v>1.068210253567282</v>
       </c>
       <c r="D11">
-        <v>1.041919491135857</v>
+        <v>1.070897800285436</v>
       </c>
       <c r="E11">
-        <v>1.027550884326443</v>
+        <v>1.069260676486131</v>
       </c>
       <c r="F11">
-        <v>1.043719733513585</v>
+        <v>1.081299966406328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062857321529814</v>
+        <v>1.060977584931758</v>
       </c>
       <c r="J11">
-        <v>1.052517528424621</v>
+        <v>1.074548597497517</v>
       </c>
       <c r="K11">
-        <v>1.056091919685078</v>
+        <v>1.07434017684681</v>
       </c>
       <c r="L11">
-        <v>1.041971285365472</v>
+        <v>1.072708703800478</v>
       </c>
       <c r="M11">
-        <v>1.05786171450357</v>
+        <v>1.084706877844398</v>
       </c>
       <c r="N11">
-        <v>1.054012224040431</v>
+        <v>1.07607457975841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.02238912122297</v>
+        <v>1.067909457208177</v>
       </c>
       <c r="D12">
-        <v>1.040572258066042</v>
+        <v>1.070658209842969</v>
       </c>
       <c r="E12">
-        <v>1.026131194578352</v>
+        <v>1.068992551496848</v>
       </c>
       <c r="F12">
-        <v>1.042246457492034</v>
+        <v>1.081027543875997</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062095904184394</v>
+        <v>1.060865963786448</v>
       </c>
       <c r="J12">
-        <v>1.051275255558242</v>
+        <v>1.074331630245602</v>
       </c>
       <c r="K12">
-        <v>1.054961358691137</v>
+        <v>1.074144725393502</v>
       </c>
       <c r="L12">
-        <v>1.040774320476763</v>
+        <v>1.072484896207446</v>
       </c>
       <c r="M12">
-        <v>1.056606696873101</v>
+        <v>1.084478215222693</v>
       </c>
       <c r="N12">
-        <v>1.052768187004091</v>
+        <v>1.075857304388111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.022760443310428</v>
+        <v>1.06797398210387</v>
       </c>
       <c r="D13">
-        <v>1.040862125965053</v>
+        <v>1.07070960550606</v>
       </c>
       <c r="E13">
-        <v>1.026436590647753</v>
+        <v>1.06905006354166</v>
       </c>
       <c r="F13">
-        <v>1.042563408524586</v>
+        <v>1.081085978779037</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06225983197125</v>
+        <v>1.060889918752727</v>
       </c>
       <c r="J13">
-        <v>1.051542609758027</v>
+        <v>1.074378178019565</v>
       </c>
       <c r="K13">
-        <v>1.055204670140153</v>
+        <v>1.074186658288585</v>
       </c>
       <c r="L13">
-        <v>1.041031853597121</v>
+        <v>1.072532906996252</v>
       </c>
       <c r="M13">
-        <v>1.056876743972798</v>
+        <v>1.084527268443333</v>
       </c>
       <c r="N13">
-        <v>1.053035920877507</v>
+        <v>1.075903918265252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.023972543314282</v>
+        <v>1.068185391020462</v>
       </c>
       <c r="D14">
-        <v>1.041808524012621</v>
+        <v>1.070877996880172</v>
       </c>
       <c r="E14">
-        <v>1.02743392160626</v>
+        <v>1.069238512433981</v>
       </c>
       <c r="F14">
-        <v>1.043598368468984</v>
+        <v>1.08127744757817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062794652329879</v>
+        <v>1.060968363634598</v>
       </c>
       <c r="J14">
-        <v>1.052415237642218</v>
+        <v>1.074530666323592</v>
       </c>
       <c r="K14">
-        <v>1.055998827105491</v>
+        <v>1.074324024325986</v>
       </c>
       <c r="L14">
-        <v>1.041872693856282</v>
+        <v>1.072690205281327</v>
       </c>
       <c r="M14">
-        <v>1.05775835189911</v>
+        <v>1.084687978462926</v>
       </c>
       <c r="N14">
-        <v>1.053909787993386</v>
+        <v>1.076056623120162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.024715899264135</v>
+        <v>1.068315638123826</v>
       </c>
       <c r="D15">
-        <v>1.042389071608833</v>
+        <v>1.070981740476901</v>
       </c>
       <c r="E15">
-        <v>1.028045891500224</v>
+        <v>1.069354626940812</v>
       </c>
       <c r="F15">
-        <v>1.044233347355646</v>
+        <v>1.08139541976197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063122426614519</v>
+        <v>1.061016661424951</v>
       </c>
       <c r="J15">
-        <v>1.05295033097937</v>
+        <v>1.074624597282125</v>
       </c>
       <c r="K15">
-        <v>1.056485804268868</v>
+        <v>1.074408636977516</v>
       </c>
       <c r="L15">
-        <v>1.042388498646639</v>
+        <v>1.072787112299598</v>
       </c>
       <c r="M15">
-        <v>1.058299096724105</v>
+        <v>1.084786984603432</v>
       </c>
       <c r="N15">
-        <v>1.054445641224451</v>
+        <v>1.07615068747143</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028991131101971</v>
+        <v>1.069073598305234</v>
       </c>
       <c r="D16">
-        <v>1.045730002055015</v>
+        <v>1.071585453480288</v>
       </c>
       <c r="E16">
-        <v>1.031570327167592</v>
+        <v>1.070030539546656</v>
       </c>
       <c r="F16">
-        <v>1.047889101370468</v>
+        <v>1.082082099356916</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065004160257756</v>
+        <v>1.061297246385571</v>
       </c>
       <c r="J16">
-        <v>1.056026657790321</v>
+        <v>1.075170979424749</v>
       </c>
       <c r="K16">
-        <v>1.059285518426498</v>
+        <v>1.074900767395499</v>
       </c>
       <c r="L16">
-        <v>1.04535696747597</v>
+        <v>1.073351006507641</v>
       </c>
       <c r="M16">
-        <v>1.061410078941777</v>
+        <v>1.085363051524759</v>
       </c>
       <c r="N16">
-        <v>1.057526336772334</v>
+        <v>1.076697845539368</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.031629038239922</v>
+        <v>1.069548930365839</v>
       </c>
       <c r="D17">
-        <v>1.047793135212571</v>
+        <v>1.071964042314244</v>
       </c>
       <c r="E17">
-        <v>1.03374909930194</v>
+        <v>1.070454589465691</v>
       </c>
       <c r="F17">
-        <v>1.050148031020413</v>
+        <v>1.082512863183551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066162211321378</v>
+        <v>1.061472784640686</v>
       </c>
       <c r="J17">
-        <v>1.057923766529937</v>
+        <v>1.075513415203127</v>
       </c>
       <c r="K17">
-        <v>1.061012040826063</v>
+        <v>1.07520915894438</v>
       </c>
       <c r="L17">
-        <v>1.047190175656031</v>
+        <v>1.073704594239788</v>
       </c>
       <c r="M17">
-        <v>1.063330426186734</v>
+        <v>1.085724235288954</v>
       </c>
       <c r="N17">
-        <v>1.059426139623962</v>
+        <v>1.077040767615828</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.033152442745777</v>
+        <v>1.069826142342382</v>
       </c>
       <c r="D18">
-        <v>1.048985185900626</v>
+        <v>1.072184829523635</v>
       </c>
       <c r="E18">
-        <v>1.035008788195726</v>
+        <v>1.070701955386387</v>
       </c>
       <c r="F18">
-        <v>1.051453705905241</v>
+        <v>1.082764130869688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066829885128866</v>
+        <v>1.061575005727792</v>
       </c>
       <c r="J18">
-        <v>1.059018957526052</v>
+        <v>1.075713046244337</v>
       </c>
       <c r="K18">
-        <v>1.062008744888382</v>
+        <v>1.075388927593444</v>
       </c>
       <c r="L18">
-        <v>1.048249399676919</v>
+        <v>1.073910790111137</v>
       </c>
       <c r="M18">
-        <v>1.064439693118979</v>
+        <v>1.085934847576948</v>
       </c>
       <c r="N18">
-        <v>1.060522885916911</v>
+        <v>1.077240682156015</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.033669349553433</v>
+        <v>1.069920657549173</v>
       </c>
       <c r="D19">
-        <v>1.049389756379295</v>
+        <v>1.072260105971529</v>
       </c>
       <c r="E19">
-        <v>1.035436453145541</v>
+        <v>1.070786305007134</v>
       </c>
       <c r="F19">
-        <v>1.05189692323185</v>
+        <v>1.082849808463487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06705624414556</v>
+        <v>1.061609832106947</v>
       </c>
       <c r="J19">
-        <v>1.059390497498162</v>
+        <v>1.075781097342196</v>
       </c>
       <c r="K19">
-        <v>1.06234687147363</v>
+        <v>1.075450205278201</v>
       </c>
       <c r="L19">
-        <v>1.048608892824731</v>
+        <v>1.073981089825003</v>
       </c>
       <c r="M19">
-        <v>1.064816119302322</v>
+        <v>1.08600665076715</v>
       </c>
       <c r="N19">
-        <v>1.060894953518397</v>
+        <v>1.077308829894238</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.031347604471996</v>
+        <v>1.069497936010976</v>
       </c>
       <c r="D20">
-        <v>1.047572962008897</v>
+        <v>1.071923427177554</v>
       </c>
       <c r="E20">
-        <v>1.033516499619647</v>
+        <v>1.070409090368348</v>
       </c>
       <c r="F20">
-        <v>1.049906911336767</v>
+        <v>1.082466645232226</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066038775279462</v>
+        <v>1.061453968369553</v>
       </c>
       <c r="J20">
-        <v>1.057721408199665</v>
+        <v>1.075476686055687</v>
       </c>
       <c r="K20">
-        <v>1.060827879097522</v>
+        <v>1.075176082932582</v>
       </c>
       <c r="L20">
-        <v>1.046994537198791</v>
+        <v>1.073666662375366</v>
       </c>
       <c r="M20">
-        <v>1.063125520243983</v>
+        <v>1.085685489914151</v>
       </c>
       <c r="N20">
-        <v>1.05922349392165</v>
+        <v>1.077003986308786</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.023616334048186</v>
+        <v>1.068123138223611</v>
       </c>
       <c r="D21">
-        <v>1.041530368957432</v>
+        <v>1.070828411462526</v>
       </c>
       <c r="E21">
-        <v>1.027140759543045</v>
+        <v>1.069183017908147</v>
       </c>
       <c r="F21">
-        <v>1.043294162346173</v>
+        <v>1.081221064387657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062637526325892</v>
+        <v>1.060945270800417</v>
       </c>
       <c r="J21">
-        <v>1.052158806461653</v>
+        <v>1.074485766929115</v>
       </c>
       <c r="K21">
-        <v>1.055765454997227</v>
+        <v>1.074283578265689</v>
       </c>
       <c r="L21">
-        <v>1.041625561194039</v>
+        <v>1.072643886868414</v>
       </c>
       <c r="M21">
-        <v>1.057499251493661</v>
+        <v>1.084640655996136</v>
       </c>
       <c r="N21">
-        <v>1.05365299265113</v>
+        <v>1.076011659963395</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.018605774123375</v>
+        <v>1.067258361259697</v>
       </c>
       <c r="D22">
-        <v>1.037620391615634</v>
+        <v>1.070139588197562</v>
       </c>
       <c r="E22">
-        <v>1.023023094062865</v>
+        <v>1.068412353374405</v>
       </c>
       <c r="F22">
-        <v>1.039019894816778</v>
+        <v>1.08043800385395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060423404028143</v>
+        <v>1.060623918467214</v>
       </c>
       <c r="J22">
-        <v>1.048550520055612</v>
+        <v>1.073861772183345</v>
       </c>
       <c r="K22">
-        <v>1.052481689823821</v>
+        <v>1.073721417621505</v>
       </c>
       <c r="L22">
-        <v>1.038151852299449</v>
+        <v>1.072000406952975</v>
       </c>
       <c r="M22">
-        <v>1.053856063354596</v>
+        <v>1.083983177960259</v>
       </c>
       <c r="N22">
-        <v>1.050039582064517</v>
+        <v>1.075386779073512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.021276778559557</v>
+        <v>1.067716833357307</v>
       </c>
       <c r="D23">
-        <v>1.039704084094145</v>
+        <v>1.070504779375188</v>
       </c>
       <c r="E23">
-        <v>1.025216713078368</v>
+        <v>1.068820877117011</v>
       </c>
       <c r="F23">
-        <v>1.041297284740228</v>
+        <v>1.080853111354995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061604595791209</v>
+        <v>1.060794417208873</v>
       </c>
       <c r="J23">
-        <v>1.050474285742761</v>
+        <v>1.074192655519447</v>
       </c>
       <c r="K23">
-        <v>1.054232422077771</v>
+        <v>1.074019525517096</v>
       </c>
       <c r="L23">
-        <v>1.040003003097618</v>
+        <v>1.072341568020987</v>
       </c>
       <c r="M23">
-        <v>1.055797822479581</v>
+        <v>1.08433177198534</v>
       </c>
       <c r="N23">
-        <v>1.0519660797196</v>
+        <v>1.075718132301905</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.031474819250549</v>
+        <v>1.069520978292172</v>
       </c>
       <c r="D24">
-        <v>1.047672483755795</v>
+        <v>1.071941779524793</v>
       </c>
       <c r="E24">
-        <v>1.033621635777516</v>
+        <v>1.070429649375549</v>
       </c>
       <c r="F24">
-        <v>1.050015899684467</v>
+        <v>1.082487529102903</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066094574754301</v>
+        <v>1.061462471149845</v>
       </c>
       <c r="J24">
-        <v>1.057812880236059</v>
+        <v>1.075493282703881</v>
       </c>
       <c r="K24">
-        <v>1.06091112575143</v>
+        <v>1.075191028901389</v>
       </c>
       <c r="L24">
-        <v>1.047082968792097</v>
+        <v>1.073683802293995</v>
       </c>
       <c r="M24">
-        <v>1.063218141830468</v>
+        <v>1.085702997467031</v>
       </c>
       <c r="N24">
-        <v>1.059315095858828</v>
+        <v>1.077020606526124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.04271605244742</v>
+        <v>1.071612981060148</v>
       </c>
       <c r="D25">
-        <v>1.056477976283822</v>
+        <v>1.073607880727753</v>
       </c>
       <c r="E25">
-        <v>1.04294104804411</v>
+        <v>1.072297515607506</v>
       </c>
       <c r="F25">
-        <v>1.059669440416787</v>
+        <v>1.084384593382809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071001206399969</v>
+        <v>1.062231146408685</v>
       </c>
       <c r="J25">
-        <v>1.065886669425988</v>
+        <v>1.076998436759596</v>
       </c>
       <c r="K25">
-        <v>1.068258534729654</v>
+        <v>1.076546146137173</v>
       </c>
       <c r="L25">
-        <v>1.054907422678812</v>
+        <v>1.075239594563381</v>
       </c>
       <c r="M25">
-        <v>1.071407059907891</v>
+        <v>1.087291875089696</v>
       </c>
       <c r="N25">
-        <v>1.067400350755483</v>
+        <v>1.078527898073242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073280345737345</v>
+        <v>1.051260241429673</v>
       </c>
       <c r="D2">
-        <v>1.074935624116435</v>
+        <v>1.063184927929156</v>
       </c>
       <c r="E2">
-        <v>1.073788146056183</v>
+        <v>1.050063569401904</v>
       </c>
       <c r="F2">
-        <v>1.085898064434198</v>
+        <v>1.067037339402348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062838976369312</v>
+        <v>1.074694531267453</v>
       </c>
       <c r="J2">
-        <v>1.078195648215931</v>
+        <v>1.072008863075876</v>
       </c>
       <c r="K2">
-        <v>1.077623521230847</v>
+        <v>1.073828964839007</v>
       </c>
       <c r="L2">
-        <v>1.076479079362058</v>
+        <v>1.060866866125781</v>
       </c>
       <c r="M2">
-        <v>1.088557304461367</v>
+        <v>1.077635539588077</v>
       </c>
       <c r="N2">
-        <v>1.079726809707167</v>
+        <v>1.073531238622579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.074490341832935</v>
+        <v>1.057243998574382</v>
       </c>
       <c r="D3">
-        <v>1.07589904721996</v>
+        <v>1.067888652559442</v>
       </c>
       <c r="E3">
-        <v>1.07487097545955</v>
+        <v>1.055072254711691</v>
       </c>
       <c r="F3">
-        <v>1.086997221257491</v>
+        <v>1.072213214713269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06327727759803</v>
+        <v>1.077259298862639</v>
       </c>
       <c r="J3">
-        <v>1.079063045818735</v>
+        <v>1.076287095253533</v>
       </c>
       <c r="K3">
-        <v>1.078403805076103</v>
+        <v>1.077720769573249</v>
       </c>
       <c r="L3">
-        <v>1.077378256750572</v>
+        <v>1.065045823991828</v>
       </c>
       <c r="M3">
-        <v>1.089475064848211</v>
+        <v>1.081998537847118</v>
       </c>
       <c r="N3">
-        <v>1.080595439114059</v>
+        <v>1.077815546380648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075272999948233</v>
+        <v>1.061021312630159</v>
       </c>
       <c r="D4">
-        <v>1.076522159017157</v>
+        <v>1.070860550570806</v>
       </c>
       <c r="E4">
-        <v>1.075571876483327</v>
+        <v>1.058242964806371</v>
       </c>
       <c r="F4">
-        <v>1.087708569241472</v>
+        <v>1.075487400288456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063559487409291</v>
+        <v>1.078867973739228</v>
       </c>
       <c r="J4">
-        <v>1.079623447150523</v>
+        <v>1.078983173214938</v>
       </c>
       <c r="K4">
-        <v>1.078907789216614</v>
+        <v>1.080172843550347</v>
       </c>
       <c r="L4">
-        <v>1.077959721671917</v>
+        <v>1.067685815122945</v>
       </c>
       <c r="M4">
-        <v>1.090068437020389</v>
+        <v>1.084752752574597</v>
       </c>
       <c r="N4">
-        <v>1.081156636280017</v>
+        <v>1.080515453082003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.075601961700283</v>
+        <v>1.062587652371042</v>
       </c>
       <c r="D5">
-        <v>1.076784047168979</v>
+        <v>1.072093473479983</v>
       </c>
       <c r="E5">
-        <v>1.075866592942895</v>
+        <v>1.059559823130078</v>
       </c>
       <c r="F5">
-        <v>1.088007649484622</v>
+        <v>1.076846683248775</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063677793741126</v>
+        <v>1.079532514977448</v>
       </c>
       <c r="J5">
-        <v>1.079858834325368</v>
+        <v>1.080100010619177</v>
       </c>
       <c r="K5">
-        <v>1.079119446717996</v>
+        <v>1.081188474862363</v>
       </c>
       <c r="L5">
-        <v>1.078204083313955</v>
+        <v>1.068780944272342</v>
       </c>
       <c r="M5">
-        <v>1.090317776529258</v>
+        <v>1.085894787339401</v>
       </c>
       <c r="N5">
-        <v>1.081392357731649</v>
+        <v>1.081633876523459</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.075657191906378</v>
+        <v>1.062849406407812</v>
       </c>
       <c r="D6">
-        <v>1.076828015373486</v>
+        <v>1.072299541048508</v>
       </c>
       <c r="E6">
-        <v>1.075916080535221</v>
+        <v>1.059780004649447</v>
       </c>
       <c r="F6">
-        <v>1.08805786813012</v>
+        <v>1.077073926328786</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063697638286435</v>
+        <v>1.079643417888229</v>
       </c>
       <c r="J6">
-        <v>1.07989834484475</v>
+        <v>1.080286578917761</v>
       </c>
       <c r="K6">
-        <v>1.079154972217615</v>
+        <v>1.081358128706225</v>
       </c>
       <c r="L6">
-        <v>1.078245107673444</v>
+        <v>1.068963975128822</v>
       </c>
       <c r="M6">
-        <v>1.0903596350593</v>
+        <v>1.086085629923481</v>
       </c>
       <c r="N6">
-        <v>1.081431924360501</v>
+        <v>1.081820709770427</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075277395815132</v>
+        <v>1.061042325906086</v>
       </c>
       <c r="D7">
-        <v>1.076525658645901</v>
+        <v>1.070877088729896</v>
       </c>
       <c r="E7">
-        <v>1.07557581427161</v>
+        <v>1.05826062311962</v>
       </c>
       <c r="F7">
-        <v>1.087712565449178</v>
+        <v>1.075505629647383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063561069538592</v>
+        <v>1.078876898961789</v>
       </c>
       <c r="J7">
-        <v>1.079626593211824</v>
+        <v>1.078998160762924</v>
       </c>
       <c r="K7">
-        <v>1.078910618247827</v>
+        <v>1.080186473474778</v>
       </c>
       <c r="L7">
-        <v>1.077962987182025</v>
+        <v>1.067700505355683</v>
       </c>
       <c r="M7">
-        <v>1.090071769154647</v>
+        <v>1.084768073875915</v>
       </c>
       <c r="N7">
-        <v>1.081159786809086</v>
+        <v>1.080530461914027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073689330750928</v>
+        <v>1.053302684970064</v>
       </c>
       <c r="D8">
-        <v>1.075261277419398</v>
+        <v>1.064789865849307</v>
       </c>
       <c r="E8">
-        <v>1.074154044461827</v>
+        <v>1.051771262984662</v>
       </c>
       <c r="F8">
-        <v>1.086269505269966</v>
+        <v>1.068802542020582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062987392633449</v>
+        <v>1.075572119943957</v>
       </c>
       <c r="J8">
-        <v>1.07848896859562</v>
+        <v>1.073470099987804</v>
       </c>
       <c r="K8">
-        <v>1.077887411077961</v>
+        <v>1.075158310624091</v>
       </c>
       <c r="L8">
-        <v>1.076783036139567</v>
+        <v>1.062292814728055</v>
       </c>
       <c r="M8">
-        <v>1.088867565784741</v>
+        <v>1.079124723767376</v>
       </c>
       <c r="N8">
-        <v>1.08002054663544</v>
+        <v>1.074994550658529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.070888654597183</v>
+        <v>1.038891667140397</v>
       </c>
       <c r="D9">
-        <v>1.073031041198305</v>
+        <v>1.053479795051964</v>
       </c>
       <c r="E9">
-        <v>1.071650495751559</v>
+        <v>1.039763991575769</v>
       </c>
       <c r="F9">
-        <v>1.083727531065973</v>
+        <v>1.056380117913936</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061965748975837</v>
+        <v>1.069337512516539</v>
       </c>
       <c r="J9">
-        <v>1.076477672914076</v>
+        <v>1.063142044787229</v>
       </c>
       <c r="K9">
-        <v>1.076077369545346</v>
+        <v>1.065760947995581</v>
       </c>
       <c r="L9">
-        <v>1.074701000676719</v>
+        <v>1.052243264218088</v>
       </c>
       <c r="M9">
-        <v>1.08674189189661</v>
+        <v>1.068620209675835</v>
       </c>
       <c r="N9">
-        <v>1.078006394683329</v>
+        <v>1.064651828434924</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069019875583096</v>
+        <v>1.028690920436404</v>
       </c>
       <c r="D10">
-        <v>1.0715426642321</v>
+        <v>1.045495286156563</v>
       </c>
       <c r="E10">
-        <v>1.069982621152986</v>
+        <v>1.031322568617153</v>
       </c>
       <c r="F10">
-        <v>1.082033420282699</v>
+        <v>1.047632178153296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.061277386202664</v>
+        <v>1.06487221699801</v>
       </c>
       <c r="J10">
-        <v>1.075132266516424</v>
+        <v>1.05581070177364</v>
       </c>
       <c r="K10">
-        <v>1.074865901146401</v>
+        <v>1.059088980319065</v>
       </c>
       <c r="L10">
-        <v>1.07331104146077</v>
+        <v>1.045148412864648</v>
       </c>
       <c r="M10">
-        <v>1.085322226125674</v>
+        <v>1.061191568652573</v>
       </c>
       <c r="N10">
-        <v>1.076659077654271</v>
+        <v>1.057310074073339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068210253567282</v>
+        <v>1.024114640567646</v>
       </c>
       <c r="D11">
-        <v>1.070897800285436</v>
+        <v>1.041919491135859</v>
       </c>
       <c r="E11">
-        <v>1.069260676486131</v>
+        <v>1.027550884326444</v>
       </c>
       <c r="F11">
-        <v>1.081299966406328</v>
+        <v>1.043719733513587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060977584931758</v>
+        <v>1.062857321529814</v>
       </c>
       <c r="J11">
-        <v>1.074548597497517</v>
+        <v>1.052517528424623</v>
       </c>
       <c r="K11">
-        <v>1.07434017684681</v>
+        <v>1.05609191968508</v>
       </c>
       <c r="L11">
-        <v>1.072708703800478</v>
+        <v>1.041971285365473</v>
       </c>
       <c r="M11">
-        <v>1.084706877844398</v>
+        <v>1.057861714503571</v>
       </c>
       <c r="N11">
-        <v>1.07607457975841</v>
+        <v>1.054012224040433</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067909457208177</v>
+        <v>1.022389121222971</v>
       </c>
       <c r="D12">
-        <v>1.070658209842969</v>
+        <v>1.040572258066043</v>
       </c>
       <c r="E12">
-        <v>1.068992551496848</v>
+        <v>1.026131194578352</v>
       </c>
       <c r="F12">
-        <v>1.081027543875997</v>
+        <v>1.042246457492034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060865963786448</v>
+        <v>1.062095904184394</v>
       </c>
       <c r="J12">
-        <v>1.074331630245602</v>
+        <v>1.051275255558242</v>
       </c>
       <c r="K12">
-        <v>1.074144725393502</v>
+        <v>1.054961358691137</v>
       </c>
       <c r="L12">
-        <v>1.072484896207446</v>
+        <v>1.040774320476763</v>
       </c>
       <c r="M12">
-        <v>1.084478215222693</v>
+        <v>1.056606696873102</v>
       </c>
       <c r="N12">
-        <v>1.075857304388111</v>
+        <v>1.052768187004092</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06797398210387</v>
+        <v>1.02276044331043</v>
       </c>
       <c r="D13">
-        <v>1.07070960550606</v>
+        <v>1.040862125965055</v>
       </c>
       <c r="E13">
-        <v>1.06905006354166</v>
+        <v>1.026436590647754</v>
       </c>
       <c r="F13">
-        <v>1.081085978779037</v>
+        <v>1.042563408524588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060889918752727</v>
+        <v>1.06225983197125</v>
       </c>
       <c r="J13">
-        <v>1.074378178019565</v>
+        <v>1.051542609758029</v>
       </c>
       <c r="K13">
-        <v>1.074186658288585</v>
+        <v>1.055204670140155</v>
       </c>
       <c r="L13">
-        <v>1.072532906996252</v>
+        <v>1.041031853597123</v>
       </c>
       <c r="M13">
-        <v>1.084527268443333</v>
+        <v>1.0568767439728</v>
       </c>
       <c r="N13">
-        <v>1.075903918265252</v>
+        <v>1.053035920877509</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.068185391020462</v>
+        <v>1.023972543314281</v>
       </c>
       <c r="D14">
-        <v>1.070877996880172</v>
+        <v>1.04180852401262</v>
       </c>
       <c r="E14">
-        <v>1.069238512433981</v>
+        <v>1.02743392160626</v>
       </c>
       <c r="F14">
-        <v>1.08127744757817</v>
+        <v>1.043598368468983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060968363634598</v>
+        <v>1.062794652329878</v>
       </c>
       <c r="J14">
-        <v>1.074530666323592</v>
+        <v>1.052415237642218</v>
       </c>
       <c r="K14">
-        <v>1.074324024325986</v>
+        <v>1.055998827105491</v>
       </c>
       <c r="L14">
-        <v>1.072690205281327</v>
+        <v>1.041872693856282</v>
       </c>
       <c r="M14">
-        <v>1.084687978462926</v>
+        <v>1.05775835189911</v>
       </c>
       <c r="N14">
-        <v>1.076056623120162</v>
+        <v>1.053909787993384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068315638123826</v>
+        <v>1.024715899264134</v>
       </c>
       <c r="D15">
-        <v>1.070981740476901</v>
+        <v>1.042389071608832</v>
       </c>
       <c r="E15">
-        <v>1.069354626940812</v>
+        <v>1.028045891500224</v>
       </c>
       <c r="F15">
-        <v>1.08139541976197</v>
+        <v>1.044233347355646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061016661424951</v>
+        <v>1.063122426614519</v>
       </c>
       <c r="J15">
-        <v>1.074624597282125</v>
+        <v>1.052950330979369</v>
       </c>
       <c r="K15">
-        <v>1.074408636977516</v>
+        <v>1.056485804268868</v>
       </c>
       <c r="L15">
-        <v>1.072787112299598</v>
+        <v>1.042388498646639</v>
       </c>
       <c r="M15">
-        <v>1.084786984603432</v>
+        <v>1.058299096724105</v>
       </c>
       <c r="N15">
-        <v>1.07615068747143</v>
+        <v>1.054445641224451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069073598305234</v>
+        <v>1.028991131101967</v>
       </c>
       <c r="D16">
-        <v>1.071585453480288</v>
+        <v>1.045730002055013</v>
       </c>
       <c r="E16">
-        <v>1.070030539546656</v>
+        <v>1.03157032716759</v>
       </c>
       <c r="F16">
-        <v>1.082082099356916</v>
+        <v>1.047889101370466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.061297246385571</v>
+        <v>1.065004160257755</v>
       </c>
       <c r="J16">
-        <v>1.075170979424749</v>
+        <v>1.056026657790318</v>
       </c>
       <c r="K16">
-        <v>1.074900767395499</v>
+        <v>1.059285518426496</v>
       </c>
       <c r="L16">
-        <v>1.073351006507641</v>
+        <v>1.045356967475968</v>
       </c>
       <c r="M16">
-        <v>1.085363051524759</v>
+        <v>1.061410078941775</v>
       </c>
       <c r="N16">
-        <v>1.076697845539368</v>
+        <v>1.057526336772331</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069548930365839</v>
+        <v>1.031629038239922</v>
       </c>
       <c r="D17">
-        <v>1.071964042314244</v>
+        <v>1.047793135212573</v>
       </c>
       <c r="E17">
-        <v>1.070454589465691</v>
+        <v>1.03374909930194</v>
       </c>
       <c r="F17">
-        <v>1.082512863183551</v>
+        <v>1.050148031020413</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061472784640686</v>
+        <v>1.066162211321378</v>
       </c>
       <c r="J17">
-        <v>1.075513415203127</v>
+        <v>1.057923766529939</v>
       </c>
       <c r="K17">
-        <v>1.07520915894438</v>
+        <v>1.061012040826064</v>
       </c>
       <c r="L17">
-        <v>1.073704594239788</v>
+        <v>1.047190175656031</v>
       </c>
       <c r="M17">
-        <v>1.085724235288954</v>
+        <v>1.063330426186735</v>
       </c>
       <c r="N17">
-        <v>1.077040767615828</v>
+        <v>1.059426139623963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069826142342382</v>
+        <v>1.033152442745775</v>
       </c>
       <c r="D18">
-        <v>1.072184829523635</v>
+        <v>1.048985185900624</v>
       </c>
       <c r="E18">
-        <v>1.070701955386387</v>
+        <v>1.035008788195725</v>
       </c>
       <c r="F18">
-        <v>1.082764130869688</v>
+        <v>1.05145370590524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061575005727792</v>
+        <v>1.066829885128865</v>
       </c>
       <c r="J18">
-        <v>1.075713046244337</v>
+        <v>1.05901895752605</v>
       </c>
       <c r="K18">
-        <v>1.075388927593444</v>
+        <v>1.06200874488838</v>
       </c>
       <c r="L18">
-        <v>1.073910790111137</v>
+        <v>1.048249399676918</v>
       </c>
       <c r="M18">
-        <v>1.085934847576948</v>
+        <v>1.064439693118978</v>
       </c>
       <c r="N18">
-        <v>1.077240682156015</v>
+        <v>1.060522885916909</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069920657549173</v>
+        <v>1.033669349553433</v>
       </c>
       <c r="D19">
-        <v>1.072260105971529</v>
+        <v>1.049389756379295</v>
       </c>
       <c r="E19">
-        <v>1.070786305007134</v>
+        <v>1.035436453145541</v>
       </c>
       <c r="F19">
-        <v>1.082849808463487</v>
+        <v>1.051896923231851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061609832106947</v>
+        <v>1.06705624414556</v>
       </c>
       <c r="J19">
-        <v>1.075781097342196</v>
+        <v>1.059390497498161</v>
       </c>
       <c r="K19">
-        <v>1.075450205278201</v>
+        <v>1.062346871473631</v>
       </c>
       <c r="L19">
-        <v>1.073981089825003</v>
+        <v>1.048608892824731</v>
       </c>
       <c r="M19">
-        <v>1.08600665076715</v>
+        <v>1.064816119302322</v>
       </c>
       <c r="N19">
-        <v>1.077308829894238</v>
+        <v>1.060894953518397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069497936010976</v>
+        <v>1.031347604471997</v>
       </c>
       <c r="D20">
-        <v>1.071923427177554</v>
+        <v>1.047572962008898</v>
       </c>
       <c r="E20">
-        <v>1.070409090368348</v>
+        <v>1.033516499619649</v>
       </c>
       <c r="F20">
-        <v>1.082466645232226</v>
+        <v>1.049906911336768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061453968369553</v>
+        <v>1.066038775279463</v>
       </c>
       <c r="J20">
-        <v>1.075476686055687</v>
+        <v>1.057721408199667</v>
       </c>
       <c r="K20">
-        <v>1.075176082932582</v>
+        <v>1.060827879097523</v>
       </c>
       <c r="L20">
-        <v>1.073666662375366</v>
+        <v>1.046994537198792</v>
       </c>
       <c r="M20">
-        <v>1.085685489914151</v>
+        <v>1.063125520243985</v>
       </c>
       <c r="N20">
-        <v>1.077003986308786</v>
+        <v>1.059223493921652</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068123138223611</v>
+        <v>1.023616334048188</v>
       </c>
       <c r="D21">
-        <v>1.070828411462526</v>
+        <v>1.041530368957434</v>
       </c>
       <c r="E21">
-        <v>1.069183017908147</v>
+        <v>1.027140759543046</v>
       </c>
       <c r="F21">
-        <v>1.081221064387657</v>
+        <v>1.043294162346175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060945270800417</v>
+        <v>1.062637526325893</v>
       </c>
       <c r="J21">
-        <v>1.074485766929115</v>
+        <v>1.052158806461654</v>
       </c>
       <c r="K21">
-        <v>1.074283578265689</v>
+        <v>1.055765454997228</v>
       </c>
       <c r="L21">
-        <v>1.072643886868414</v>
+        <v>1.04162556119404</v>
       </c>
       <c r="M21">
-        <v>1.084640655996136</v>
+        <v>1.057499251493662</v>
       </c>
       <c r="N21">
-        <v>1.076011659963395</v>
+        <v>1.053652992651131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.067258361259697</v>
+        <v>1.018605774123376</v>
       </c>
       <c r="D22">
-        <v>1.070139588197562</v>
+        <v>1.037620391615635</v>
       </c>
       <c r="E22">
-        <v>1.068412353374405</v>
+        <v>1.023023094062866</v>
       </c>
       <c r="F22">
-        <v>1.08043800385395</v>
+        <v>1.039019894816779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060623918467214</v>
+        <v>1.060423404028144</v>
       </c>
       <c r="J22">
-        <v>1.073861772183345</v>
+        <v>1.048550520055613</v>
       </c>
       <c r="K22">
-        <v>1.073721417621505</v>
+        <v>1.052481689823822</v>
       </c>
       <c r="L22">
-        <v>1.072000406952975</v>
+        <v>1.03815185229945</v>
       </c>
       <c r="M22">
-        <v>1.083983177960259</v>
+        <v>1.053856063354597</v>
       </c>
       <c r="N22">
-        <v>1.075386779073512</v>
+        <v>1.050039582064518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067716833357307</v>
+        <v>1.021276778559556</v>
       </c>
       <c r="D23">
-        <v>1.070504779375188</v>
+        <v>1.039704084094144</v>
       </c>
       <c r="E23">
-        <v>1.068820877117011</v>
+        <v>1.025216713078367</v>
       </c>
       <c r="F23">
-        <v>1.080853111354995</v>
+        <v>1.041297284740228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060794417208873</v>
+        <v>1.061604595791209</v>
       </c>
       <c r="J23">
-        <v>1.074192655519447</v>
+        <v>1.05047428574276</v>
       </c>
       <c r="K23">
-        <v>1.074019525517096</v>
+        <v>1.054232422077771</v>
       </c>
       <c r="L23">
-        <v>1.072341568020987</v>
+        <v>1.040003003097617</v>
       </c>
       <c r="M23">
-        <v>1.08433177198534</v>
+        <v>1.055797822479581</v>
       </c>
       <c r="N23">
-        <v>1.075718132301905</v>
+        <v>1.0519660797196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069520978292172</v>
+        <v>1.031474819250548</v>
       </c>
       <c r="D24">
-        <v>1.071941779524793</v>
+        <v>1.047672483755794</v>
       </c>
       <c r="E24">
-        <v>1.070429649375549</v>
+        <v>1.033621635777515</v>
       </c>
       <c r="F24">
-        <v>1.082487529102903</v>
+        <v>1.050015899684466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061462471149845</v>
+        <v>1.0660945747543</v>
       </c>
       <c r="J24">
-        <v>1.075493282703881</v>
+        <v>1.057812880236058</v>
       </c>
       <c r="K24">
-        <v>1.075191028901389</v>
+        <v>1.060911125751429</v>
       </c>
       <c r="L24">
-        <v>1.073683802293995</v>
+        <v>1.047082968792096</v>
       </c>
       <c r="M24">
-        <v>1.085702997467031</v>
+        <v>1.063218141830467</v>
       </c>
       <c r="N24">
-        <v>1.077020606526124</v>
+        <v>1.059315095858826</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.071612981060148</v>
+        <v>1.04271605244742</v>
       </c>
       <c r="D25">
-        <v>1.073607880727753</v>
+        <v>1.056477976283823</v>
       </c>
       <c r="E25">
-        <v>1.072297515607506</v>
+        <v>1.04294104804411</v>
       </c>
       <c r="F25">
-        <v>1.084384593382809</v>
+        <v>1.059669440416787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062231146408685</v>
+        <v>1.071001206399969</v>
       </c>
       <c r="J25">
-        <v>1.076998436759596</v>
+        <v>1.065886669425988</v>
       </c>
       <c r="K25">
-        <v>1.076546146137173</v>
+        <v>1.068258534729654</v>
       </c>
       <c r="L25">
-        <v>1.075239594563381</v>
+        <v>1.054907422678813</v>
       </c>
       <c r="M25">
-        <v>1.087291875089696</v>
+        <v>1.071407059907892</v>
       </c>
       <c r="N25">
-        <v>1.078527898073242</v>
+        <v>1.067400350755482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,81 +433,105 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.051260241429673</v>
+        <v>0.9973418794663103</v>
       </c>
       <c r="D2">
-        <v>1.063184927929156</v>
+        <v>1.019641025245132</v>
       </c>
       <c r="E2">
-        <v>1.050063569401904</v>
+        <v>1.023042233487702</v>
       </c>
       <c r="F2">
-        <v>1.067037339402348</v>
+        <v>1.030812876760165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.074694531267453</v>
+        <v>1.047769123182301</v>
       </c>
       <c r="J2">
-        <v>1.072008863075876</v>
+        <v>1.019602386177322</v>
       </c>
       <c r="K2">
-        <v>1.073828964839007</v>
+        <v>1.030833346377829</v>
       </c>
       <c r="L2">
-        <v>1.060866866125781</v>
+        <v>1.034189622256931</v>
       </c>
       <c r="M2">
-        <v>1.077635539588077</v>
+        <v>1.041859001963582</v>
       </c>
       <c r="N2">
-        <v>1.073531238622579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010584790583976</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041700981812597</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032872036823566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.057243998574382</v>
+        <v>1.0007581855694</v>
       </c>
       <c r="D3">
-        <v>1.067888652559442</v>
+        <v>1.021866852846975</v>
       </c>
       <c r="E3">
-        <v>1.055072254711691</v>
+        <v>1.026231768412319</v>
       </c>
       <c r="F3">
-        <v>1.072213214713269</v>
+        <v>1.033747685806892</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077259298862639</v>
+        <v>1.04848264213244</v>
       </c>
       <c r="J3">
-        <v>1.076287095253533</v>
+        <v>1.021228202999467</v>
       </c>
       <c r="K3">
-        <v>1.077720769573249</v>
+        <v>1.03222738412015</v>
       </c>
       <c r="L3">
-        <v>1.065045823991828</v>
+        <v>1.036539659788561</v>
       </c>
       <c r="M3">
-        <v>1.081998537847118</v>
+        <v>1.043966227024519</v>
       </c>
       <c r="N3">
-        <v>1.077815546380648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011124831521112</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043368704473296</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033855071599851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.061021312630159</v>
+        <v>1.002929904997357</v>
       </c>
       <c r="D4">
-        <v>1.070860550570806</v>
+        <v>1.023283240565326</v>
       </c>
       <c r="E4">
-        <v>1.058242964806371</v>
+        <v>1.028267885643178</v>
       </c>
       <c r="F4">
-        <v>1.075487400288456</v>
+        <v>1.035619839332467</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078867973739228</v>
+        <v>1.048922822418827</v>
       </c>
       <c r="J4">
-        <v>1.078983173214938</v>
+        <v>1.022258959289567</v>
       </c>
       <c r="K4">
-        <v>1.080172843550347</v>
+        <v>1.033108549693818</v>
       </c>
       <c r="L4">
-        <v>1.067685815122945</v>
+        <v>1.038036705231279</v>
       </c>
       <c r="M4">
-        <v>1.084752752574597</v>
+        <v>1.045306561972582</v>
       </c>
       <c r="N4">
-        <v>1.080515453082003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011467289918434</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044429484746542</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034479042652716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062587652371042</v>
+        <v>1.003836065683572</v>
       </c>
       <c r="D5">
-        <v>1.072093473479983</v>
+        <v>1.023876378746785</v>
       </c>
       <c r="E5">
-        <v>1.059559823130078</v>
+        <v>1.029118276298934</v>
       </c>
       <c r="F5">
-        <v>1.076846683248775</v>
+        <v>1.036401322477326</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079532514977448</v>
+        <v>1.04910431955483</v>
       </c>
       <c r="J5">
-        <v>1.080100010619177</v>
+        <v>1.022689473867039</v>
       </c>
       <c r="K5">
-        <v>1.081188474862363</v>
+        <v>1.033477333832386</v>
       </c>
       <c r="L5">
-        <v>1.068780944272342</v>
+        <v>1.03866140747546</v>
       </c>
       <c r="M5">
-        <v>1.085894787339401</v>
+        <v>1.045865304107603</v>
       </c>
       <c r="N5">
-        <v>1.081633876523459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011610583259186</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044871689156633</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034747029188453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062849406407812</v>
+        <v>1.003990387470343</v>
       </c>
       <c r="D6">
-        <v>1.072299541048508</v>
+        <v>1.023979636959694</v>
       </c>
       <c r="E6">
-        <v>1.059780004649447</v>
+        <v>1.029261740528278</v>
       </c>
       <c r="F6">
-        <v>1.077073926328786</v>
+        <v>1.036533021722958</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079643417888229</v>
+        <v>1.049136367730601</v>
       </c>
       <c r="J6">
-        <v>1.080286578917761</v>
+        <v>1.022764101357928</v>
       </c>
       <c r="K6">
-        <v>1.081358128706225</v>
+        <v>1.033542917718866</v>
       </c>
       <c r="L6">
-        <v>1.068963975128822</v>
+        <v>1.038767020451078</v>
       </c>
       <c r="M6">
-        <v>1.086085629923481</v>
+        <v>1.045959643435646</v>
       </c>
       <c r="N6">
-        <v>1.081820709770427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011635717077524</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044946351956453</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034802209575746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.061042325906086</v>
+        <v>1.002949243733631</v>
       </c>
       <c r="D7">
-        <v>1.070877088729896</v>
+        <v>1.023301827568543</v>
       </c>
       <c r="E7">
-        <v>1.05826062311962</v>
+        <v>1.028282099839088</v>
       </c>
       <c r="F7">
-        <v>1.075505629647383</v>
+        <v>1.035632548237027</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078876898961789</v>
+        <v>1.048930244458244</v>
       </c>
       <c r="J7">
-        <v>1.078998160762924</v>
+        <v>1.022271744061888</v>
       </c>
       <c r="K7">
-        <v>1.080186473474778</v>
+        <v>1.033124014925632</v>
       </c>
       <c r="L7">
-        <v>1.067700505355683</v>
+        <v>1.038047868276748</v>
       </c>
       <c r="M7">
-        <v>1.084768073875915</v>
+        <v>1.045316266525067</v>
       </c>
       <c r="N7">
-        <v>1.080530461914027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011472342535696</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04443716520755</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034510233135635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053302684970064</v>
+        <v>0.9985133693210182</v>
       </c>
       <c r="D8">
-        <v>1.064789865849307</v>
+        <v>1.020411134174974</v>
       </c>
       <c r="E8">
-        <v>1.051771262984662</v>
+        <v>1.024129495867089</v>
       </c>
       <c r="F8">
-        <v>1.068802542020582</v>
+        <v>1.031813002463109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075572119943957</v>
+        <v>1.048020723791129</v>
       </c>
       <c r="J8">
-        <v>1.073470099987804</v>
+        <v>1.020164783637022</v>
       </c>
       <c r="K8">
-        <v>1.075158310624091</v>
+        <v>1.031321543310968</v>
       </c>
       <c r="L8">
-        <v>1.062292814728055</v>
+        <v>1.034992243964031</v>
       </c>
       <c r="M8">
-        <v>1.079124723767376</v>
+        <v>1.042578622364839</v>
       </c>
       <c r="N8">
-        <v>1.074994550658529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01077261938472</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042270511940295</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03324031594839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038891667140397</v>
+        <v>0.9903761471105618</v>
       </c>
       <c r="D9">
-        <v>1.053479795051964</v>
+        <v>1.015112560082555</v>
       </c>
       <c r="E9">
-        <v>1.039763991575769</v>
+        <v>1.016586963898994</v>
       </c>
       <c r="F9">
-        <v>1.056380117913936</v>
+        <v>1.024865850660051</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069337512516539</v>
+        <v>1.046243013501881</v>
       </c>
       <c r="J9">
-        <v>1.063142044787229</v>
+        <v>1.016273386327131</v>
       </c>
       <c r="K9">
-        <v>1.065760947995581</v>
+        <v>1.027965114249785</v>
       </c>
       <c r="L9">
-        <v>1.052243264218088</v>
+        <v>1.029416541639047</v>
       </c>
       <c r="M9">
-        <v>1.068620209675835</v>
+        <v>1.037567979596308</v>
       </c>
       <c r="N9">
-        <v>1.064651828434924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009479576322273</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038304922961356</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030863864798834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028690920436404</v>
+        <v>0.9847655874027655</v>
       </c>
       <c r="D10">
-        <v>1.045495286156563</v>
+        <v>1.011475706875439</v>
       </c>
       <c r="E10">
-        <v>1.031322568617153</v>
+        <v>1.011555276170654</v>
       </c>
       <c r="F10">
-        <v>1.047632178153296</v>
+        <v>1.020252178973206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06487221699801</v>
+        <v>1.044969173250526</v>
       </c>
       <c r="J10">
-        <v>1.05581070177364</v>
+        <v>1.013596953883149</v>
       </c>
       <c r="K10">
-        <v>1.059088980319065</v>
+        <v>1.025640809698021</v>
       </c>
       <c r="L10">
-        <v>1.045148412864648</v>
+        <v>1.025718984414263</v>
       </c>
       <c r="M10">
-        <v>1.061191568652573</v>
+        <v>1.034265154681753</v>
       </c>
       <c r="N10">
-        <v>1.057310074073339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008593502024789</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035742555410447</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029237360647955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024114640567646</v>
+        <v>0.9825884715020693</v>
       </c>
       <c r="D11">
-        <v>1.041919491135859</v>
+        <v>1.01009499385488</v>
       </c>
       <c r="E11">
-        <v>1.027550884326444</v>
+        <v>1.010592767684323</v>
       </c>
       <c r="F11">
-        <v>1.043719733513587</v>
+        <v>1.019590937014154</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062857321529814</v>
+        <v>1.044605740474247</v>
       </c>
       <c r="J11">
-        <v>1.052517528424623</v>
+        <v>1.01270396823268</v>
       </c>
       <c r="K11">
-        <v>1.05609191968508</v>
+        <v>1.024829011788491</v>
       </c>
       <c r="L11">
-        <v>1.041971285365473</v>
+        <v>1.025317647026175</v>
       </c>
       <c r="M11">
-        <v>1.057861714503571</v>
+        <v>1.03415261825425</v>
       </c>
       <c r="N11">
-        <v>1.054012224040433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008319822827912</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036090908494913</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028696496018132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022389121222971</v>
+        <v>0.9818766781501926</v>
       </c>
       <c r="D12">
-        <v>1.040572258066043</v>
+        <v>1.009645901842512</v>
       </c>
       <c r="E12">
-        <v>1.026131194578352</v>
+        <v>1.010694858676876</v>
       </c>
       <c r="F12">
-        <v>1.042246457492034</v>
+        <v>1.019849418751885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062095904184394</v>
+        <v>1.044540988964017</v>
       </c>
       <c r="J12">
-        <v>1.051275255558242</v>
+        <v>1.012468359530637</v>
       </c>
       <c r="K12">
-        <v>1.054961358691137</v>
+        <v>1.024590605831077</v>
       </c>
       <c r="L12">
-        <v>1.040774320476763</v>
+        <v>1.025619990883274</v>
       </c>
       <c r="M12">
-        <v>1.056606696873102</v>
+        <v>1.034605965877901</v>
       </c>
       <c r="N12">
-        <v>1.052768187004092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008258557771007</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036776569742285</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028527932587054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02276044331043</v>
+        <v>0.9822535728141903</v>
       </c>
       <c r="D13">
-        <v>1.040862125965055</v>
+        <v>1.009895851021298</v>
       </c>
       <c r="E13">
-        <v>1.026436590647754</v>
+        <v>1.011631169720036</v>
       </c>
       <c r="F13">
-        <v>1.042563408524588</v>
+        <v>1.020847728138055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06225983197125</v>
+        <v>1.044713182932607</v>
       </c>
       <c r="J13">
-        <v>1.051542609758029</v>
+        <v>1.012733010515154</v>
       </c>
       <c r="K13">
-        <v>1.055204670140155</v>
+        <v>1.024792480826763</v>
       </c>
       <c r="L13">
-        <v>1.041031853597123</v>
+        <v>1.026495579229863</v>
       </c>
       <c r="M13">
-        <v>1.0568767439728</v>
+        <v>1.03554339776216</v>
       </c>
       <c r="N13">
-        <v>1.053035920877509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008361150203011</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037794859520263</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028668152938605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023972543314281</v>
+        <v>0.983010329318371</v>
       </c>
       <c r="D14">
-        <v>1.04180852401262</v>
+        <v>1.010388269734146</v>
       </c>
       <c r="E14">
-        <v>1.02743392160626</v>
+        <v>1.012656554913327</v>
       </c>
       <c r="F14">
-        <v>1.043598368468983</v>
+        <v>1.021875076365674</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062794652329878</v>
+        <v>1.044940259258967</v>
       </c>
       <c r="J14">
-        <v>1.052415237642218</v>
+        <v>1.01314407783011</v>
       </c>
       <c r="K14">
-        <v>1.055998827105491</v>
+        <v>1.025133617525918</v>
       </c>
       <c r="L14">
-        <v>1.041872693856282</v>
+        <v>1.02736033128646</v>
       </c>
       <c r="M14">
-        <v>1.05775835189911</v>
+        <v>1.036412368384937</v>
       </c>
       <c r="N14">
-        <v>1.053909787993384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008507041175291</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038655255797719</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028910788520739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024715899264134</v>
+        <v>0.9834345509053019</v>
       </c>
       <c r="D15">
-        <v>1.042389071608832</v>
+        <v>1.010664939426229</v>
       </c>
       <c r="E15">
-        <v>1.028045891500224</v>
+        <v>1.013104376705279</v>
       </c>
       <c r="F15">
-        <v>1.044233347355646</v>
+        <v>1.022305617756709</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063122426614519</v>
+        <v>1.045050618908062</v>
       </c>
       <c r="J15">
-        <v>1.052950330979369</v>
+        <v>1.013357716719075</v>
       </c>
       <c r="K15">
-        <v>1.056485804268868</v>
+        <v>1.025317668568835</v>
       </c>
       <c r="L15">
-        <v>1.042388498646639</v>
+        <v>1.027712744908323</v>
       </c>
       <c r="M15">
-        <v>1.058299096724105</v>
+        <v>1.036749133697614</v>
       </c>
       <c r="N15">
-        <v>1.054445641224451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008580092017349</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03895899883752</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029046842011687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028991131101967</v>
+        <v>0.9857332932285457</v>
       </c>
       <c r="D16">
-        <v>1.045730002055013</v>
+        <v>1.012156831918928</v>
       </c>
       <c r="E16">
-        <v>1.03157032716759</v>
+        <v>1.015063054471235</v>
       </c>
       <c r="F16">
-        <v>1.047889101370466</v>
+        <v>1.024096999795572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065004160257755</v>
+        <v>1.045575090096623</v>
       </c>
       <c r="J16">
-        <v>1.056026657790318</v>
+        <v>1.014445973095821</v>
       </c>
       <c r="K16">
-        <v>1.059285518426496</v>
+        <v>1.02627396262318</v>
       </c>
       <c r="L16">
-        <v>1.045356967475968</v>
+        <v>1.029129669393157</v>
       </c>
       <c r="M16">
-        <v>1.061410078941775</v>
+        <v>1.038008949921117</v>
       </c>
       <c r="N16">
-        <v>1.057526336772331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008937939478529</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039916013231491</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.029726181047512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031629038239922</v>
+        <v>0.9871031500953363</v>
       </c>
       <c r="D17">
-        <v>1.047793135212573</v>
+        <v>1.013045870792321</v>
       </c>
       <c r="E17">
-        <v>1.03374909930194</v>
+        <v>1.016029749663319</v>
       </c>
       <c r="F17">
-        <v>1.050148031020413</v>
+        <v>1.024929393100599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066162211321378</v>
+        <v>1.045855786490199</v>
       </c>
       <c r="J17">
-        <v>1.057923766529939</v>
+        <v>1.015066118584877</v>
       </c>
       <c r="K17">
-        <v>1.061012040826064</v>
+        <v>1.026828960887117</v>
       </c>
       <c r="L17">
-        <v>1.047190175656031</v>
+        <v>1.029762438014848</v>
       </c>
       <c r="M17">
-        <v>1.063330426186735</v>
+        <v>1.0385139965211</v>
       </c>
       <c r="N17">
-        <v>1.059426139623963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00913619891511</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040186099210528</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.030121201383108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033152442745775</v>
+        <v>0.9877968143801356</v>
       </c>
       <c r="D18">
-        <v>1.048985185900624</v>
+        <v>1.013488569099039</v>
       </c>
       <c r="E18">
-        <v>1.035008788195725</v>
+        <v>1.016173639448652</v>
       </c>
       <c r="F18">
-        <v>1.05145370590524</v>
+        <v>1.024947518943204</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.066829885128865</v>
+        <v>1.045945546538553</v>
       </c>
       <c r="J18">
-        <v>1.05901895752605</v>
+        <v>1.015328904852451</v>
       </c>
       <c r="K18">
-        <v>1.06200874488838</v>
+        <v>1.027078464469525</v>
       </c>
       <c r="L18">
-        <v>1.048249399676918</v>
+        <v>1.029718915042954</v>
       </c>
       <c r="M18">
-        <v>1.064439693118978</v>
+        <v>1.038349085684962</v>
       </c>
       <c r="N18">
-        <v>1.060522885916909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009210454371013</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039817848833792</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.030285878811551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033669349553433</v>
+        <v>0.9878792244571839</v>
       </c>
       <c r="D19">
-        <v>1.049389756379295</v>
+        <v>1.013533174919293</v>
       </c>
       <c r="E19">
-        <v>1.035436453145541</v>
+        <v>1.015556823325013</v>
       </c>
       <c r="F19">
-        <v>1.051896923231851</v>
+        <v>1.024214226685126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06705624414556</v>
+        <v>1.045867034426692</v>
       </c>
       <c r="J19">
-        <v>1.059390497498161</v>
+        <v>1.015270735793886</v>
       </c>
       <c r="K19">
-        <v>1.062346871473631</v>
+        <v>1.027059013401466</v>
       </c>
       <c r="L19">
-        <v>1.048608892824731</v>
+        <v>1.029049188899907</v>
       </c>
       <c r="M19">
-        <v>1.064816119302322</v>
+        <v>1.037565308084381</v>
       </c>
       <c r="N19">
-        <v>1.060894953518397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009175438885639</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038872196379653</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.030278572735783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031347604471997</v>
+        <v>0.9862361719100067</v>
       </c>
       <c r="D20">
-        <v>1.047572962008898</v>
+        <v>1.012441696971534</v>
       </c>
       <c r="E20">
-        <v>1.033516499619649</v>
+        <v>1.012867898266252</v>
       </c>
       <c r="F20">
-        <v>1.049906911336768</v>
+        <v>1.021455868126028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066038775279463</v>
+        <v>1.045315914294939</v>
       </c>
       <c r="J20">
-        <v>1.057721408199667</v>
+        <v>1.014308174121603</v>
       </c>
       <c r="K20">
-        <v>1.060827879097523</v>
+        <v>1.026269246060789</v>
       </c>
       <c r="L20">
-        <v>1.046994537198792</v>
+        <v>1.026688193041607</v>
       </c>
       <c r="M20">
-        <v>1.063125520243985</v>
+        <v>1.035131649776064</v>
       </c>
       <c r="N20">
-        <v>1.059223493921652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008831345352673</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036417713342571</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029724117430195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023616334048188</v>
+        <v>0.9819649151780603</v>
       </c>
       <c r="D21">
-        <v>1.041530368957434</v>
+        <v>1.009669406470133</v>
       </c>
       <c r="E21">
-        <v>1.027140759543046</v>
+        <v>1.008869388575583</v>
       </c>
       <c r="F21">
-        <v>1.043294162346175</v>
+        <v>1.01774375526609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062637526325893</v>
+        <v>1.044294215644828</v>
       </c>
       <c r="J21">
-        <v>1.052158806461654</v>
+        <v>1.012236519339625</v>
       </c>
       <c r="K21">
-        <v>1.055765454997228</v>
+        <v>1.02446987573191</v>
       </c>
       <c r="L21">
-        <v>1.04162556119404</v>
+        <v>1.023684653663663</v>
       </c>
       <c r="M21">
-        <v>1.057499251493662</v>
+        <v>1.032396587781486</v>
       </c>
       <c r="N21">
-        <v>1.053652992651131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008141379137142</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034212088785591</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028455127430314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018605774123376</v>
+        <v>0.97923909732648</v>
       </c>
       <c r="D22">
-        <v>1.037620391615635</v>
+        <v>1.00789997234638</v>
       </c>
       <c r="E22">
-        <v>1.023023094062866</v>
+        <v>1.006392507044319</v>
       </c>
       <c r="F22">
-        <v>1.039019894816779</v>
+        <v>1.015457496377686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060423404028144</v>
+        <v>1.043635316717869</v>
       </c>
       <c r="J22">
-        <v>1.048550520055613</v>
+        <v>1.010918347255183</v>
       </c>
       <c r="K22">
-        <v>1.052481689823822</v>
+        <v>1.023316537098259</v>
       </c>
       <c r="L22">
-        <v>1.03815185229945</v>
+        <v>1.021838381965415</v>
       </c>
       <c r="M22">
-        <v>1.053856063354597</v>
+        <v>1.030728833170157</v>
       </c>
       <c r="N22">
-        <v>1.050039582064518</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007702742384886</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032892159944109</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027626030231254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021276778559556</v>
+        <v>0.9806833772196452</v>
       </c>
       <c r="D23">
-        <v>1.039704084094144</v>
+        <v>1.008832463952823</v>
       </c>
       <c r="E23">
-        <v>1.025216713078367</v>
+        <v>1.007706655531239</v>
       </c>
       <c r="F23">
-        <v>1.041297284740228</v>
+        <v>1.016671421219091</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061604595791209</v>
+        <v>1.043983222442913</v>
       </c>
       <c r="J23">
-        <v>1.05047428574276</v>
+        <v>1.011614212328403</v>
       </c>
       <c r="K23">
-        <v>1.054232422077771</v>
+        <v>1.023922149131568</v>
       </c>
       <c r="L23">
-        <v>1.040003003097617</v>
+        <v>1.022817661479944</v>
       </c>
       <c r="M23">
-        <v>1.055797822479581</v>
+        <v>1.031614357654428</v>
       </c>
       <c r="N23">
-        <v>1.0519660797196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007933433894399</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033593000351649</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028044511929014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031474819250548</v>
+        <v>0.9862672467620585</v>
       </c>
       <c r="D24">
-        <v>1.047672483755794</v>
+        <v>1.01245171895252</v>
       </c>
       <c r="E24">
-        <v>1.033621635777515</v>
+        <v>1.012805661596211</v>
       </c>
       <c r="F24">
-        <v>1.050015899684466</v>
+        <v>1.021377644515929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0660945747543</v>
+        <v>1.04530511021842</v>
       </c>
       <c r="J24">
-        <v>1.057812880236058</v>
+        <v>1.014304371838688</v>
       </c>
       <c r="K24">
-        <v>1.060911125751429</v>
+        <v>1.026263640933874</v>
       </c>
       <c r="L24">
-        <v>1.047082968792096</v>
+        <v>1.026611566507187</v>
       </c>
       <c r="M24">
-        <v>1.063218141830467</v>
+        <v>1.035039464743949</v>
       </c>
       <c r="N24">
-        <v>1.059315095858826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008826858930734</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036303764061977</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.029692521276526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04271605244742</v>
+        <v>0.9925289500173439</v>
       </c>
       <c r="D25">
-        <v>1.056477976283823</v>
+        <v>1.016521231933942</v>
       </c>
       <c r="E25">
-        <v>1.04294104804411</v>
+        <v>1.018568647093134</v>
       </c>
       <c r="F25">
-        <v>1.059669440416787</v>
+        <v>1.026691298728297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071001206399969</v>
+        <v>1.04673004695326</v>
       </c>
       <c r="J25">
-        <v>1.065886669425988</v>
+        <v>1.017310387508372</v>
       </c>
       <c r="K25">
-        <v>1.068258534729654</v>
+        <v>1.028868378579732</v>
       </c>
       <c r="L25">
-        <v>1.054907422678813</v>
+        <v>1.030885388480018</v>
       </c>
       <c r="M25">
-        <v>1.071407059907892</v>
+        <v>1.038888929401725</v>
       </c>
       <c r="N25">
-        <v>1.067400350755482</v>
+        <v>1.00982544743176</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039350368598455</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031531348505606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9973418794663103</v>
+        <v>0.9976146433742478</v>
       </c>
       <c r="D2">
-        <v>1.019641025245132</v>
+        <v>1.019593986191557</v>
       </c>
       <c r="E2">
-        <v>1.023042233487702</v>
+        <v>1.023101526048321</v>
       </c>
       <c r="F2">
-        <v>1.030812876760165</v>
+        <v>1.030886942086227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047769123182301</v>
+        <v>1.047749776758377</v>
       </c>
       <c r="J2">
-        <v>1.019602386177322</v>
+        <v>1.019866934879972</v>
       </c>
       <c r="K2">
-        <v>1.030833346377829</v>
+        <v>1.030786931380682</v>
       </c>
       <c r="L2">
-        <v>1.034189622256931</v>
+        <v>1.034248134842589</v>
       </c>
       <c r="M2">
-        <v>1.041859001963582</v>
+        <v>1.04193211129222</v>
       </c>
       <c r="N2">
-        <v>1.010584790583976</v>
+        <v>1.012571106748019</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041700981812597</v>
+        <v>1.041758842845874</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032872036823566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032848057069156</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02035254251281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0007581855694</v>
+        <v>1.00090928948601</v>
       </c>
       <c r="D3">
-        <v>1.021866852846975</v>
+        <v>1.021662335944579</v>
       </c>
       <c r="E3">
-        <v>1.026231768412319</v>
+        <v>1.026254010956954</v>
       </c>
       <c r="F3">
-        <v>1.033747685806892</v>
+        <v>1.033776328059062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04848264213244</v>
+        <v>1.048385384378548</v>
       </c>
       <c r="J3">
-        <v>1.021228202999467</v>
+        <v>1.021375197008609</v>
       </c>
       <c r="K3">
-        <v>1.03222738412015</v>
+        <v>1.032025347347663</v>
       </c>
       <c r="L3">
-        <v>1.036539659788561</v>
+        <v>1.03656163551586</v>
       </c>
       <c r="M3">
-        <v>1.043966227024519</v>
+        <v>1.043994531851065</v>
       </c>
       <c r="N3">
-        <v>1.011124831521112</v>
+        <v>1.012969669906415</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043368704473296</v>
+        <v>1.043391105756688</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033855071599851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033720775446292</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020580271439201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002929904997357</v>
+        <v>1.003004467693731</v>
       </c>
       <c r="D4">
-        <v>1.023283240565326</v>
+        <v>1.022979202748798</v>
       </c>
       <c r="E4">
-        <v>1.028267885643178</v>
+        <v>1.028266916511428</v>
       </c>
       <c r="F4">
-        <v>1.035619839332467</v>
+        <v>1.035619867671745</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048922822418827</v>
+        <v>1.048776227020729</v>
       </c>
       <c r="J4">
-        <v>1.022258959289567</v>
+        <v>1.022331629879984</v>
       </c>
       <c r="K4">
-        <v>1.033108549693818</v>
+        <v>1.032807979423601</v>
       </c>
       <c r="L4">
-        <v>1.038036705231279</v>
+        <v>1.03803574701684</v>
       </c>
       <c r="M4">
-        <v>1.045306561972582</v>
+        <v>1.045306589998167</v>
       </c>
       <c r="N4">
-        <v>1.011467289918434</v>
+        <v>1.013222491694513</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044429484746542</v>
+        <v>1.044429506926793</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034479042652716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034275155669624</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020721542726338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003836065683572</v>
+        <v>1.003878907440754</v>
       </c>
       <c r="D5">
-        <v>1.023876378746785</v>
+        <v>1.023531033724582</v>
       </c>
       <c r="E5">
-        <v>1.029118276298934</v>
+        <v>1.029107709809751</v>
       </c>
       <c r="F5">
-        <v>1.036401322477326</v>
+        <v>1.036389490877706</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04910431955483</v>
+        <v>1.048937223901382</v>
       </c>
       <c r="J5">
-        <v>1.022689473867039</v>
+        <v>1.022731260659822</v>
       </c>
       <c r="K5">
-        <v>1.033477333832386</v>
+        <v>1.033135823922474</v>
       </c>
       <c r="L5">
-        <v>1.03866140747546</v>
+        <v>1.038650956818543</v>
       </c>
       <c r="M5">
-        <v>1.045865304107603</v>
+        <v>1.04585359998366</v>
       </c>
       <c r="N5">
-        <v>1.011610583259186</v>
+        <v>1.013328338010356</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044871689156633</v>
+        <v>1.044862426182948</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034747029188453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034514904403772</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020780414393727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003990387470343</v>
+        <v>1.004027879293904</v>
       </c>
       <c r="D6">
-        <v>1.023979636959694</v>
+        <v>1.02362736383154</v>
       </c>
       <c r="E6">
-        <v>1.029261740528278</v>
+        <v>1.029249555931068</v>
       </c>
       <c r="F6">
-        <v>1.036533021722958</v>
+        <v>1.03651919906563</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049136367730601</v>
+        <v>1.0489658347617</v>
       </c>
       <c r="J6">
-        <v>1.022764101357928</v>
+        <v>1.022800674660887</v>
       </c>
       <c r="K6">
-        <v>1.033542917718866</v>
+        <v>1.033194538945374</v>
       </c>
       <c r="L6">
-        <v>1.038767020451078</v>
+        <v>1.03875496880747</v>
       </c>
       <c r="M6">
-        <v>1.045959643435646</v>
+        <v>1.045945969024212</v>
       </c>
       <c r="N6">
-        <v>1.011635717077524</v>
+        <v>1.01334695416698</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044946351956453</v>
+        <v>1.044935529642787</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034802209575746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034566096015339</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020791331777656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002949243733631</v>
+        <v>1.003030703568105</v>
       </c>
       <c r="D7">
-        <v>1.023301827568543</v>
+        <v>1.023002127491183</v>
       </c>
       <c r="E7">
-        <v>1.028282099839088</v>
+        <v>1.028283388951432</v>
       </c>
       <c r="F7">
-        <v>1.035632548237027</v>
+        <v>1.035634833644367</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048930244458244</v>
+        <v>1.048785815054352</v>
       </c>
       <c r="J7">
-        <v>1.022271744061888</v>
+        <v>1.022351137651456</v>
       </c>
       <c r="K7">
-        <v>1.033124014925632</v>
+        <v>1.032827731609917</v>
       </c>
       <c r="L7">
-        <v>1.038047868276748</v>
+        <v>1.038049142872564</v>
       </c>
       <c r="M7">
-        <v>1.045316266525067</v>
+        <v>1.045318526644011</v>
       </c>
       <c r="N7">
-        <v>1.011472342535696</v>
+        <v>1.013254132053981</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04443716520755</v>
+        <v>1.044438953930454</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034510233135635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034311374742805</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020726673587161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9985133693210182</v>
+        <v>0.9987672340089482</v>
       </c>
       <c r="D8">
-        <v>1.020411134174974</v>
+        <v>1.020325484356464</v>
       </c>
       <c r="E8">
-        <v>1.024129495867089</v>
+        <v>1.024183621374225</v>
       </c>
       <c r="F8">
-        <v>1.031813002463109</v>
+        <v>1.031878958687561</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048020723791129</v>
+        <v>1.047982321109452</v>
       </c>
       <c r="J8">
-        <v>1.020164783637022</v>
+        <v>1.020411256720795</v>
       </c>
       <c r="K8">
-        <v>1.031321543310968</v>
+        <v>1.031236996449426</v>
       </c>
       <c r="L8">
-        <v>1.034992243964031</v>
+        <v>1.03504567889656</v>
       </c>
       <c r="M8">
-        <v>1.042578622364839</v>
+        <v>1.042643752635148</v>
       </c>
       <c r="N8">
-        <v>1.01077261938472</v>
+        <v>1.012794300792402</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042270511940295</v>
+        <v>1.042322058054348</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03324031594839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.0331916379853</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020438538785423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9903761471105618</v>
+        <v>0.9909278879658425</v>
       </c>
       <c r="D9">
-        <v>1.015112560082555</v>
+        <v>1.015407391061235</v>
       </c>
       <c r="E9">
-        <v>1.016586963898994</v>
+        <v>1.016732742400817</v>
       </c>
       <c r="F9">
-        <v>1.024865850660051</v>
+        <v>1.025042605691605</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046243013501881</v>
+        <v>1.046392227772382</v>
       </c>
       <c r="J9">
-        <v>1.016273386327131</v>
+        <v>1.016805124116659</v>
       </c>
       <c r="K9">
-        <v>1.027965114249785</v>
+        <v>1.028255343895447</v>
       </c>
       <c r="L9">
-        <v>1.029416541639047</v>
+        <v>1.029560053022418</v>
       </c>
       <c r="M9">
-        <v>1.037567979596308</v>
+        <v>1.037742042201504</v>
       </c>
       <c r="N9">
-        <v>1.009479576322273</v>
+        <v>1.011850586164232</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038304922961356</v>
+        <v>1.038442682250748</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030863864798834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031079905992598</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019874361756306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9847655874027655</v>
+        <v>0.9855600536685339</v>
       </c>
       <c r="D10">
-        <v>1.011475706875439</v>
+        <v>1.012057487812077</v>
       </c>
       <c r="E10">
-        <v>1.011555276170654</v>
+        <v>1.01177714653942</v>
       </c>
       <c r="F10">
-        <v>1.020252178973206</v>
+        <v>1.020517422035505</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044969173250526</v>
+        <v>1.045259401255161</v>
       </c>
       <c r="J10">
-        <v>1.013596953883149</v>
+        <v>1.014358533476357</v>
       </c>
       <c r="K10">
-        <v>1.025640809698021</v>
+        <v>1.026212400549395</v>
       </c>
       <c r="L10">
-        <v>1.025718984414263</v>
+        <v>1.025936967651436</v>
       </c>
       <c r="M10">
-        <v>1.034265154681753</v>
+        <v>1.034525852788679</v>
       </c>
       <c r="N10">
-        <v>1.008593502024789</v>
+        <v>1.011323263570262</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035742555410447</v>
+        <v>1.035948868881502</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029237360647955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029654023924479</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019478470235472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9825884715020693</v>
+        <v>0.9835252601259579</v>
       </c>
       <c r="D11">
-        <v>1.01009499385488</v>
+        <v>1.010817699628973</v>
       </c>
       <c r="E11">
-        <v>1.010592767684323</v>
+        <v>1.010855578486197</v>
       </c>
       <c r="F11">
-        <v>1.019590937014154</v>
+        <v>1.019905177723163</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044605740474247</v>
+        <v>1.044965885313288</v>
       </c>
       <c r="J11">
-        <v>1.01270396823268</v>
+        <v>1.013599839397451</v>
       </c>
       <c r="K11">
-        <v>1.024829011788491</v>
+        <v>1.025538453307662</v>
       </c>
       <c r="L11">
-        <v>1.025317647026175</v>
+        <v>1.02557563763263</v>
       </c>
       <c r="M11">
-        <v>1.03415261825425</v>
+        <v>1.034461227231777</v>
       </c>
       <c r="N11">
-        <v>1.008319822827912</v>
+        <v>1.011367264865905</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036090908494913</v>
+        <v>1.036335014534748</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028696496018132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029213839449484</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019363508962751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9818766781501926</v>
+        <v>0.9828656439793826</v>
       </c>
       <c r="D12">
-        <v>1.009645901842512</v>
+        <v>1.010417458493512</v>
       </c>
       <c r="E12">
-        <v>1.010694858676876</v>
+        <v>1.010969724137979</v>
       </c>
       <c r="F12">
-        <v>1.019849418751885</v>
+        <v>1.02018112641978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044540988964017</v>
+        <v>1.044925747966327</v>
       </c>
       <c r="J12">
-        <v>1.012468359530637</v>
+        <v>1.013413289243174</v>
       </c>
       <c r="K12">
-        <v>1.024590605831077</v>
+        <v>1.025347761366669</v>
       </c>
       <c r="L12">
-        <v>1.025619990883274</v>
+        <v>1.025889736575666</v>
       </c>
       <c r="M12">
-        <v>1.034605965877901</v>
+        <v>1.034931638914543</v>
       </c>
       <c r="N12">
-        <v>1.008258557771007</v>
+        <v>1.011431355689698</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036776569742285</v>
+        <v>1.037034085700212</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028527932587054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029079014961363</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019336208127554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9822535728141903</v>
+        <v>0.9832178553058714</v>
       </c>
       <c r="D13">
-        <v>1.009895851021298</v>
+        <v>1.010641353578577</v>
       </c>
       <c r="E13">
-        <v>1.011631169720036</v>
+        <v>1.01189468341544</v>
       </c>
       <c r="F13">
-        <v>1.020847728138055</v>
+        <v>1.021171110182519</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044713182932607</v>
+        <v>1.045085762495542</v>
       </c>
       <c r="J13">
-        <v>1.012733010515154</v>
+        <v>1.013654559201688</v>
       </c>
       <c r="K13">
-        <v>1.024792480826763</v>
+        <v>1.025524123683897</v>
       </c>
       <c r="L13">
-        <v>1.026495579229863</v>
+        <v>1.026754212771395</v>
       </c>
       <c r="M13">
-        <v>1.03554339776216</v>
+        <v>1.035860931136658</v>
       </c>
       <c r="N13">
-        <v>1.008361150203011</v>
+        <v>1.011482668500287</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037794859520263</v>
+        <v>1.038045876062305</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028668152938605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029200951953313</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019378166401453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.983010329318371</v>
+        <v>0.9839229481899536</v>
       </c>
       <c r="D14">
-        <v>1.010388269734146</v>
+        <v>1.011081991380992</v>
       </c>
       <c r="E14">
-        <v>1.012656554913327</v>
+        <v>1.012902639397409</v>
       </c>
       <c r="F14">
-        <v>1.021875076365674</v>
+        <v>1.022181349410765</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044940259258967</v>
+        <v>1.045287778068895</v>
       </c>
       <c r="J14">
-        <v>1.01314407783011</v>
+        <v>1.014016825224807</v>
       </c>
       <c r="K14">
-        <v>1.025133617525918</v>
+        <v>1.025814599377562</v>
       </c>
       <c r="L14">
-        <v>1.02736033128646</v>
+        <v>1.027601920293819</v>
       </c>
       <c r="M14">
-        <v>1.036412368384937</v>
+        <v>1.036713177121768</v>
       </c>
       <c r="N14">
-        <v>1.008507041175291</v>
+        <v>1.011513865553598</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038655255797719</v>
+        <v>1.038893019074669</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028910788520739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029407901645906</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019439137238752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9834345509053019</v>
+        <v>0.9843183847722522</v>
       </c>
       <c r="D15">
-        <v>1.010664939426229</v>
+        <v>1.011330013224047</v>
       </c>
       <c r="E15">
-        <v>1.013104376705279</v>
+        <v>1.013341637375827</v>
       </c>
       <c r="F15">
-        <v>1.022305617756709</v>
+        <v>1.022602305120979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045050618908062</v>
+        <v>1.045384133646451</v>
       </c>
       <c r="J15">
-        <v>1.013357716719075</v>
+        <v>1.014203272085656</v>
       </c>
       <c r="K15">
-        <v>1.025317668568835</v>
+        <v>1.025970620447936</v>
       </c>
       <c r="L15">
-        <v>1.027712744908323</v>
+        <v>1.027945705838121</v>
       </c>
       <c r="M15">
-        <v>1.036749133697614</v>
+        <v>1.037040569556819</v>
       </c>
       <c r="N15">
-        <v>1.008580092017349</v>
+        <v>1.011522972894114</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03895899883752</v>
+        <v>1.03918934761391</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029046842011687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029524704214813</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019470653235702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857332932285457</v>
+        <v>0.9864692435418304</v>
       </c>
       <c r="D16">
-        <v>1.012156831918928</v>
+        <v>1.012672324367306</v>
       </c>
       <c r="E16">
-        <v>1.015063054471235</v>
+        <v>1.01525728003234</v>
       </c>
       <c r="F16">
-        <v>1.024096999795572</v>
+        <v>1.02434327130237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045575090096623</v>
+        <v>1.045834927471445</v>
       </c>
       <c r="J16">
-        <v>1.014445973095821</v>
+        <v>1.015151638999583</v>
       </c>
       <c r="K16">
-        <v>1.02627396262318</v>
+        <v>1.026780467424481</v>
       </c>
       <c r="L16">
-        <v>1.029129669393157</v>
+        <v>1.029320532276326</v>
       </c>
       <c r="M16">
-        <v>1.038008949921117</v>
+        <v>1.038251054450743</v>
       </c>
       <c r="N16">
-        <v>1.008937939478529</v>
+        <v>1.011564728777851</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039916013231491</v>
+        <v>1.04010737637975</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.029726181047512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.030100795045769</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019628175607661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9871031500953363</v>
+        <v>0.9877611445625649</v>
       </c>
       <c r="D17">
-        <v>1.013045870792321</v>
+        <v>1.013479249096268</v>
       </c>
       <c r="E17">
-        <v>1.016029749663319</v>
+        <v>1.016201496018148</v>
       </c>
       <c r="F17">
-        <v>1.024929393100599</v>
+        <v>1.025148146425349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045855786490199</v>
+        <v>1.04607496835641</v>
       </c>
       <c r="J17">
-        <v>1.015066118584877</v>
+        <v>1.01569790657654</v>
       </c>
       <c r="K17">
-        <v>1.026828960887117</v>
+        <v>1.027254995071318</v>
       </c>
       <c r="L17">
-        <v>1.029762438014848</v>
+        <v>1.029931294958877</v>
       </c>
       <c r="M17">
-        <v>1.0385139965211</v>
+        <v>1.038729151560006</v>
       </c>
       <c r="N17">
-        <v>1.00913619891511</v>
+        <v>1.011609539558335</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040186099210528</v>
+        <v>1.040356178023199</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.030121201383108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.030439164408409</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019717678219137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9877968143801356</v>
+        <v>0.9884195888883577</v>
       </c>
       <c r="D18">
-        <v>1.013488569099039</v>
+        <v>1.013883761399763</v>
       </c>
       <c r="E18">
-        <v>1.016173639448652</v>
+        <v>1.016335669250601</v>
       </c>
       <c r="F18">
-        <v>1.024947518943204</v>
+        <v>1.025153052425766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045945546538553</v>
+        <v>1.046145544311046</v>
       </c>
       <c r="J18">
-        <v>1.015328904852451</v>
+        <v>1.015927343602054</v>
       </c>
       <c r="K18">
-        <v>1.027078464469525</v>
+        <v>1.027467070465722</v>
       </c>
       <c r="L18">
-        <v>1.029718915042954</v>
+        <v>1.029878261986318</v>
       </c>
       <c r="M18">
-        <v>1.038349085684962</v>
+        <v>1.03855129055983</v>
       </c>
       <c r="N18">
-        <v>1.009210454371013</v>
+        <v>1.011619829563497</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039817848833792</v>
+        <v>1.039977723965064</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.030285878811551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.030576243883067</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019752240082217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9878792244571839</v>
+        <v>0.9885003583781177</v>
       </c>
       <c r="D19">
-        <v>1.013533174919293</v>
+        <v>1.01392709131226</v>
       </c>
       <c r="E19">
-        <v>1.015556823325013</v>
+        <v>1.015719825094122</v>
       </c>
       <c r="F19">
-        <v>1.024214226685126</v>
+        <v>1.024418400062021</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045867034426692</v>
+        <v>1.046065887128777</v>
       </c>
       <c r="J19">
-        <v>1.015270735793886</v>
+        <v>1.015867746114451</v>
       </c>
       <c r="K19">
-        <v>1.027059013401466</v>
+        <v>1.027446400592372</v>
       </c>
       <c r="L19">
-        <v>1.029049188899907</v>
+        <v>1.029209501945874</v>
       </c>
       <c r="M19">
-        <v>1.037565308084381</v>
+        <v>1.037766186453528</v>
       </c>
       <c r="N19">
-        <v>1.009175438885639</v>
+        <v>1.011581248351267</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038872196379653</v>
+        <v>1.039031074704985</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.030278572735783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.030568698699028</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019738554983791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9862361719100067</v>
+        <v>0.9869463957268165</v>
       </c>
       <c r="D20">
-        <v>1.012441696971534</v>
+        <v>1.012934999220033</v>
       </c>
       <c r="E20">
-        <v>1.012867898266252</v>
+        <v>1.013062533818386</v>
       </c>
       <c r="F20">
-        <v>1.021455868126028</v>
+        <v>1.021691327942043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045315914294939</v>
+        <v>1.045562720015693</v>
       </c>
       <c r="J20">
-        <v>1.014308174121603</v>
+        <v>1.014989954198317</v>
       </c>
       <c r="K20">
-        <v>1.026269246060789</v>
+        <v>1.026754152597418</v>
       </c>
       <c r="L20">
-        <v>1.026688193041607</v>
+        <v>1.026879518349974</v>
       </c>
       <c r="M20">
-        <v>1.035131649776064</v>
+        <v>1.035363191487892</v>
       </c>
       <c r="N20">
-        <v>1.008831345352673</v>
+        <v>1.011393087759709</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036417713342571</v>
+        <v>1.036600954972037</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029724117430195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030083583549147</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019585542278338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819649151780603</v>
+        <v>0.9829615662637057</v>
       </c>
       <c r="D21">
-        <v>1.009669406470133</v>
+        <v>1.010449254305076</v>
       </c>
       <c r="E21">
-        <v>1.008869388575583</v>
+        <v>1.00915907605711</v>
       </c>
       <c r="F21">
-        <v>1.01774375526609</v>
+        <v>1.01807900107265</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044294215644828</v>
+        <v>1.044681321249163</v>
       </c>
       <c r="J21">
-        <v>1.012236519339625</v>
+        <v>1.013189343520093</v>
       </c>
       <c r="K21">
-        <v>1.02446987573191</v>
+        <v>1.025235330160834</v>
       </c>
       <c r="L21">
-        <v>1.023684653663663</v>
+        <v>1.0239689800258</v>
       </c>
       <c r="M21">
-        <v>1.032396587781486</v>
+        <v>1.032725769569743</v>
       </c>
       <c r="N21">
-        <v>1.008141379137142</v>
+        <v>1.011332817625925</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034212088785591</v>
+        <v>1.034472616350853</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028455127430314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029013285228148</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01928825346947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.97923909732648</v>
+        <v>0.9804168815183586</v>
       </c>
       <c r="D22">
-        <v>1.00789997234638</v>
+        <v>1.008861323799707</v>
       </c>
       <c r="E22">
-        <v>1.006392507044319</v>
+        <v>1.006743496094895</v>
       </c>
       <c r="F22">
-        <v>1.015457496377686</v>
+        <v>1.015855533522087</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043635316717869</v>
+        <v>1.044111003812235</v>
       </c>
       <c r="J22">
-        <v>1.010918347255183</v>
+        <v>1.012041326990796</v>
       </c>
       <c r="K22">
-        <v>1.023316537098259</v>
+        <v>1.02425925660517</v>
       </c>
       <c r="L22">
-        <v>1.021838381965415</v>
+        <v>1.022182536334661</v>
       </c>
       <c r="M22">
-        <v>1.030728833170157</v>
+        <v>1.031119299831511</v>
       </c>
       <c r="N22">
-        <v>1.007702742384886</v>
+        <v>1.011286191829538</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032892159944109</v>
+        <v>1.033201191365959</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027626030231254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028308228641891</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019094536396024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9806833772196452</v>
+        <v>0.9817533877758644</v>
       </c>
       <c r="D23">
-        <v>1.008832463952823</v>
+        <v>1.009689599021918</v>
       </c>
       <c r="E23">
-        <v>1.007706655531239</v>
+        <v>1.008020791796196</v>
       </c>
       <c r="F23">
-        <v>1.016671421219091</v>
+        <v>1.017032533335422</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043983222442913</v>
+        <v>1.044408089761284</v>
       </c>
       <c r="J23">
-        <v>1.011614212328403</v>
+        <v>1.012635891993397</v>
       </c>
       <c r="K23">
-        <v>1.023922149131568</v>
+        <v>1.024763093271826</v>
       </c>
       <c r="L23">
-        <v>1.022817661479944</v>
+        <v>1.023125842311257</v>
       </c>
       <c r="M23">
-        <v>1.031614357654428</v>
+        <v>1.031968780657081</v>
       </c>
       <c r="N23">
-        <v>1.007933433894399</v>
+        <v>1.011267136605788</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033593000351649</v>
+        <v>1.033873505061032</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028044511929014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028653807622618</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019193522399553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9862672467620585</v>
+        <v>0.9869759113900728</v>
       </c>
       <c r="D24">
-        <v>1.01245171895252</v>
+        <v>1.012943301093781</v>
       </c>
       <c r="E24">
-        <v>1.012805661596211</v>
+        <v>1.013000193020665</v>
       </c>
       <c r="F24">
-        <v>1.021377644515929</v>
+        <v>1.021612544983889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04530511021842</v>
+        <v>1.045550994079515</v>
       </c>
       <c r="J24">
-        <v>1.014304371838688</v>
+        <v>1.014984697648801</v>
       </c>
       <c r="K24">
-        <v>1.026263640933874</v>
+        <v>1.026746867581627</v>
       </c>
       <c r="L24">
-        <v>1.026611566507187</v>
+        <v>1.026802793184031</v>
       </c>
       <c r="M24">
-        <v>1.035039464743949</v>
+        <v>1.035270460651124</v>
       </c>
       <c r="N24">
-        <v>1.008826858930734</v>
+        <v>1.011385367887802</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036303764061977</v>
+        <v>1.036486582883639</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029692521276526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030048131125886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019581365943639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9925289500173439</v>
+        <v>0.9929921312051403</v>
       </c>
       <c r="D25">
-        <v>1.016521231933942</v>
+        <v>1.016709190889662</v>
       </c>
       <c r="E25">
-        <v>1.018568647093134</v>
+        <v>1.018686749254781</v>
       </c>
       <c r="F25">
-        <v>1.026691298728297</v>
+        <v>1.026835591582926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04673004695326</v>
+        <v>1.046826658868445</v>
       </c>
       <c r="J25">
-        <v>1.017310387508372</v>
+        <v>1.017757661804417</v>
       </c>
       <c r="K25">
-        <v>1.028868378579732</v>
+        <v>1.029053539748903</v>
       </c>
       <c r="L25">
-        <v>1.030885388480018</v>
+        <v>1.031001741496719</v>
       </c>
       <c r="M25">
-        <v>1.038888929401725</v>
+        <v>1.039031127942571</v>
       </c>
       <c r="N25">
-        <v>1.00982544743176</v>
+        <v>1.012070456868959</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039350368598455</v>
+        <v>1.03946290938045</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031531348505606</v>
+        <v>1.031675897975867</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020028701538737</v>
       </c>
     </row>
   </sheetData>
